--- a/results/repeated_entries.xlsx
+++ b/results/repeated_entries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,20 +444,22 @@
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="21" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="21" customWidth="1" min="12" max="12"/>
+    <col width="24" customWidth="1" min="12" max="12"/>
     <col width="21" customWidth="1" min="13" max="13"/>
     <col width="21" customWidth="1" min="14" max="14"/>
-    <col width="19" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="21" customWidth="1" min="17" max="17"/>
-    <col width="22" customWidth="1" min="18" max="18"/>
+    <col width="21" customWidth="1" min="15" max="15"/>
+    <col width="19" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="21" customWidth="1" min="18" max="18"/>
     <col width="22" customWidth="1" min="19" max="19"/>
-    <col width="20" customWidth="1" min="20" max="20"/>
-    <col width="19" customWidth="1" min="21" max="21"/>
+    <col width="22" customWidth="1" min="20" max="20"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
     <col width="19" customWidth="1" min="22" max="22"/>
-    <col width="20" customWidth="1" min="23" max="23"/>
-    <col width="21" customWidth="1" min="24" max="24"/>
-    <col width="20" customWidth="1" min="25" max="25"/>
+    <col width="19" customWidth="1" min="23" max="23"/>
+    <col width="20" customWidth="1" min="24" max="24"/>
+    <col width="21" customWidth="1" min="25" max="25"/>
+    <col width="20" customWidth="1" min="26" max="26"/>
+    <col width="24" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -518,72 +520,82 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>spectraltype_esphs_dr2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>dr2_source_id</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>dr3_source_id</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>source_id_dr3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ra_dr3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>dec_dr3</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>phot_g_mean_mag_dr3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>phot_bp_mean_mag_dr3</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>phot_rp_mean_mag_dr3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>bp_rp</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>parallax_dr3</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>teff_gspphot</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>mass_flame_dr3</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>lum_flame_dr3</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>radius_flame_dr3</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>spectraltype_esphs_dr3</t>
         </is>
       </c>
     </row>
@@ -616,39 +628,49 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>776067089642433664</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>776067089642433664</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>776067089642433664</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>161.3393108665803</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>38.51243753117977</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>8.691554069519043</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>9.458678245544434</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>7.571324825286865</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>1.887353420257568</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>72.12030429452771</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -680,10 +702,15 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>776067089642433664</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>776067093937332992</t>
         </is>
@@ -718,10 +745,15 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>3234412606443085824</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>3234412602147418496</t>
         </is>
@@ -756,39 +788,49 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>3234412606443085824</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>3234412606443085824</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>3234412606443085824</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>80.65647842134706</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>2.602426364625909</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>7.574897766113281</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>7.974358558654785</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>6.771440029144287</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>1.202918529510498</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>50.51711071904607</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -818,12 +860,12 @@
       <c r="H6" t="n">
         <v>6022</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>6719152945029845376</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>6719152945029845376</t>
         </is>
@@ -856,12 +898,12 @@
       <c r="H7" t="n">
         <v>5190.33349609375</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>6719152945032456832</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>6719152945029845376</t>
         </is>
@@ -894,12 +936,12 @@
       <c r="H8" t="n">
         <v>6022</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>6719152945029845376</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>6719152945032456832</t>
         </is>
@@ -932,12 +974,12 @@
       <c r="H9" t="n">
         <v>5190.33349609375</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>6719152945032456832</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>6719152945032456832</t>
         </is>
@@ -978,10 +1020,15 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>1586968533015434624</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>1586968533013974528</t>
         </is>
@@ -1022,48 +1069,58 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>1586968533015434624</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>1586968533015434624</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>1586968533015434624</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>225.2329571292861</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>45.42773317280201</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>8.467482566833496</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>9.381574630737305</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>7.508890628814697</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>1.872684001922607</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>85.4119444807103</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>3601.6806640625</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>0.07281243801116943</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
         <v>0.6930326223373413</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1095,10 +1152,15 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>598180818531935232</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>598180818531355776</t>
         </is>
@@ -1133,39 +1195,49 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>598180818531935232</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>598180818531935232</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>598180818531935232</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>130.6865487902776</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>9.553884675324547</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>8.95395565032959</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>9.869359970092773</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>7.95960807800293</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>1.909751892089844</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>64.68101125800112</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1206,10 +1278,15 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
           <t>3575733210781078016</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>3575733210778695808</t>
         </is>
@@ -1253,51 +1330,61 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>3575733210781078016</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>3575733210781078016</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>3575733210781078016</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>180.1856293061816</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>-10.44827200397585</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>5.355077266693115</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>5.731156826019287</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>4.805628299713135</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>0.9255285263061523</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>78.33591471044681</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>5510.12353515625</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>0.8779153823852539</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>0.8789317011833191</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Z15" t="n">
         <v>1.028767466545105</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1335,48 +1422,58 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
           <t>3213958769587525888</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>3213958769587525888</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>3213958769587525888</t>
         </is>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>79.80586741563162</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>-3.07320375008595</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>7.49282169342041</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>8.024881362915039</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>6.745429039001465</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>1.279452323913574</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>63.64345779109681</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>4587.14697265625</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>0.2233356088399887</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
         <v>0.748258650302887</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1414,10 +1511,15 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
           <t>3213958769587525888</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>3213958769589070848</t>
         </is>
@@ -1450,12 +1552,12 @@
       <c r="H18" t="n">
         <v>5095.63330078125</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>5426587107149861120</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>5426587107145955712</t>
         </is>
@@ -1488,12 +1590,12 @@
       <c r="H19" t="n">
         <v>5095.63330078125</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>5426587107149861120</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>5426587107149861120</t>
         </is>
@@ -1526,12 +1628,12 @@
       <c r="H20" t="n">
         <v>5143.4501953125</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>2595463996992115840</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2595463992699783424</t>
         </is>
@@ -1564,12 +1666,12 @@
       <c r="H21" t="n">
         <v>5143.4501953125</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>2595463996992115840</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2595463996992115840</t>
         </is>
@@ -1613,51 +1715,61 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
           <t>1462061709995883136</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>1462061709995883136</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>1462061709995883136</t>
         </is>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>200.8841905787304</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>29.2385865148712</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>8.844668388366699</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>9.575559616088867</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>7.798164844512939</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>1.777394771575928</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>55.20998508388942</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>3905.4169921875</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>0.6421307921409607</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Y22" t="n">
         <v>0.107005387544632</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Z22" t="n">
         <v>0.7143532633781433</v>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1698,10 +1810,15 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
           <t>1462061709995883136</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>1462061709996744448</t>
         </is>
@@ -1736,39 +1853,49 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
           <t>2974726131970829952</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>2974726131970829952</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>2974726131970829952</t>
         </is>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>75.6178310374648</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>-21.25787832693494</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>7.792407512664795</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>8.551479339599609</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>6.645774841308594</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>1.905704498291016</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>119.5737439372057</v>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1800,10 +1927,15 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
           <t>2974726131970829952</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>2974726136265625088</t>
         </is>
@@ -1847,10 +1979,15 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
           <t>3943232534138172672</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>3943232534137347072</t>
         </is>
@@ -1894,51 +2031,61 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
           <t>3943232534138172672</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>3943232534138172672</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>3943232534138172672</t>
         </is>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>196.563887451697</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>20.72966994150692</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>8.973732948303223</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>9.684998512268066</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>8.016292572021484</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>1.668705940246582</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>50.80727454464759</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>4006.371826171875</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>0.6415486335754395</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
         <v>0.10798329859972</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Z27" t="n">
         <v>0.6824297308921814</v>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/results/repeated_entries.xlsx
+++ b/results/repeated_entries.xlsx
@@ -442,7 +442,7 @@
     <col width="19" customWidth="1" min="7" max="7"/>
     <col width="19" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="21" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="24" customWidth="1" min="12" max="12"/>
     <col width="21" customWidth="1" min="13" max="13"/>
@@ -457,7 +457,7 @@
     <col width="19" customWidth="1" min="22" max="22"/>
     <col width="19" customWidth="1" min="23" max="23"/>
     <col width="20" customWidth="1" min="24" max="24"/>
-    <col width="21" customWidth="1" min="25" max="25"/>
+    <col width="20" customWidth="1" min="25" max="25"/>
     <col width="20" customWidth="1" min="26" max="26"/>
     <col width="24" customWidth="1" min="27" max="27"/>
   </cols>
@@ -602,29 +602,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>776067089642433664</t>
+          <t>3234412606443085824</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161.3393177357646</v>
+        <v>80.65646942221296</v>
       </c>
       <c r="C2" t="n">
-        <v>38.51241559503183</v>
+        <v>2.602451244119687</v>
       </c>
       <c r="D2" t="n">
-        <v>8.667779922485352</v>
+        <v>7.53508996963501</v>
       </c>
       <c r="E2" t="n">
-        <v>9.488222122192383</v>
+        <v>8.008501052856445</v>
       </c>
       <c r="F2" t="n">
-        <v>7.58256721496582</v>
+        <v>6.799147129058838</v>
       </c>
       <c r="G2" t="n">
-        <v>72.98709001875206</v>
+        <v>50.39430355852318</v>
       </c>
       <c r="H2" t="n">
-        <v>4100</v>
+        <v>4837</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -633,72 +633,41 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>776067089642433664</t>
+          <t>3234412606443085824</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>776067089642433664</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>776067089642433664</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>161.3393108665803</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>38.51243753117977</v>
-      </c>
-      <c r="R2" t="n">
-        <v>8.691554069519043</v>
-      </c>
-      <c r="S2" t="n">
-        <v>9.458678245544434</v>
-      </c>
-      <c r="T2" t="n">
-        <v>7.571324825286865</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.887353420257568</v>
-      </c>
-      <c r="V2" t="n">
-        <v>72.12030429452771</v>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>K</t>
+          <t>3234412602147418496</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>776067089642433664</t>
+          <t>3234412606443085824</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.3393177357646</v>
+        <v>80.65646942221296</v>
       </c>
       <c r="C3" t="n">
-        <v>38.51241559503183</v>
+        <v>2.602451244119687</v>
       </c>
       <c r="D3" t="n">
-        <v>8.667779922485352</v>
+        <v>7.53508996963501</v>
       </c>
       <c r="E3" t="n">
-        <v>9.488222122192383</v>
+        <v>8.008501052856445</v>
       </c>
       <c r="F3" t="n">
-        <v>7.58256721496582</v>
+        <v>6.799147129058838</v>
       </c>
       <c r="G3" t="n">
-        <v>72.98709001875206</v>
+        <v>50.39430355852318</v>
       </c>
       <c r="H3" t="n">
-        <v>4100</v>
+        <v>4837</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -707,129 +676,119 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>776067089642433664</t>
+          <t>3234412606443085824</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>776067093937332992</t>
+          <t>3234412606443085824</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>3234412606443085824</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>80.65647842134706</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.602426364625909</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7.574897766113281</v>
+      </c>
+      <c r="S3" t="n">
+        <v>7.974358558654785</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6.771440029144287</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.202918529510498</v>
+      </c>
+      <c r="V3" t="n">
+        <v>50.51711071904607</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
+          <t>6719152945029845376</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.65646942221296</v>
+        <v>286.6054157588619</v>
       </c>
       <c r="C4" t="n">
-        <v>2.602451244119687</v>
+        <v>-37.06488085942344</v>
       </c>
       <c r="D4" t="n">
-        <v>7.53508996963501</v>
+        <v>4.717123985290527</v>
       </c>
       <c r="E4" t="n">
-        <v>8.008501052856445</v>
+        <v>4.816995620727539</v>
       </c>
       <c r="F4" t="n">
-        <v>6.799147129058838</v>
+        <v>4.114394664764404</v>
       </c>
       <c r="G4" t="n">
-        <v>50.39430355852318</v>
+        <v>57.85828017971518</v>
       </c>
       <c r="H4" t="n">
-        <v>4837</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+        <v>6022</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
+          <t>6719152945029845376</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3234412602147418496</t>
+          <t>6719152945029845376</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
+          <t>6719152945032456832</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.65646942221296</v>
+        <v>286.6053079615535</v>
       </c>
       <c r="C5" t="n">
-        <v>2.602451244119687</v>
+        <v>-37.06450354954132</v>
       </c>
       <c r="D5" t="n">
-        <v>7.53508996963501</v>
+        <v>4.760257244110107</v>
       </c>
       <c r="E5" t="n">
-        <v>8.008501052856445</v>
+        <v>4.791435241699219</v>
       </c>
       <c r="F5" t="n">
-        <v>6.799147129058838</v>
+        <v>3.94169807434082</v>
       </c>
       <c r="G5" t="n">
-        <v>50.39430355852318</v>
+        <v>58.69555998807621</v>
       </c>
       <c r="H5" t="n">
-        <v>4837</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+        <v>5190.33349609375</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
+          <t>6719152945032456832</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>3234412606443085824</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>80.65647842134706</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.602426364625909</v>
-      </c>
-      <c r="R5" t="n">
-        <v>7.574897766113281</v>
-      </c>
-      <c r="S5" t="n">
-        <v>7.974358558654785</v>
-      </c>
-      <c r="T5" t="n">
-        <v>6.771440029144287</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.202918529510498</v>
-      </c>
-      <c r="V5" t="n">
-        <v>50.51711071904607</v>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>K</t>
+          <t>6719152945029845376</t>
         </is>
       </c>
     </row>
@@ -867,7 +826,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>6719152945032456832</t>
         </is>
       </c>
     </row>
@@ -905,813 +864,856 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>6719152945032456832</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>286.6054157588619</v>
+        <v>130.6865172420918</v>
       </c>
       <c r="C8" t="n">
-        <v>-37.06488085942344</v>
+        <v>9.5539723965289</v>
       </c>
       <c r="D8" t="n">
-        <v>4.717123985290527</v>
+        <v>8.946824073791504</v>
       </c>
       <c r="E8" t="n">
-        <v>4.816995620727539</v>
+        <v>9.887347221374512</v>
       </c>
       <c r="F8" t="n">
-        <v>4.114394664764404</v>
+        <v>7.971009254455566</v>
       </c>
       <c r="G8" t="n">
-        <v>57.85828017971518</v>
+        <v>64.3680016469628</v>
       </c>
       <c r="H8" t="n">
-        <v>6022</v>
+        <v>3873</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>598180818531355776</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>286.6053079615535</v>
+        <v>130.6865172420918</v>
       </c>
       <c r="C9" t="n">
-        <v>-37.06450354954132</v>
+        <v>9.5539723965289</v>
       </c>
       <c r="D9" t="n">
-        <v>4.760257244110107</v>
+        <v>8.946824073791504</v>
       </c>
       <c r="E9" t="n">
-        <v>4.791435241699219</v>
+        <v>9.887347221374512</v>
       </c>
       <c r="F9" t="n">
-        <v>3.94169807434082</v>
+        <v>7.971009254455566</v>
       </c>
       <c r="G9" t="n">
-        <v>58.69555998807621</v>
+        <v>64.3680016469628</v>
       </c>
       <c r="H9" t="n">
-        <v>5190.33349609375</v>
+        <v>3873</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>598180818531935232</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>598180818531935232</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>130.6865487902776</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>9.553884675324547</v>
+      </c>
+      <c r="R9" t="n">
+        <v>8.95395565032959</v>
+      </c>
+      <c r="S9" t="n">
+        <v>9.869359970092773</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7.95960807800293</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.909751892089844</v>
+      </c>
+      <c r="V9" t="n">
+        <v>64.68101125800112</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1586968533015434624</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>225.2329125375929</v>
+        <v>180.1856175191175</v>
       </c>
       <c r="C10" t="n">
-        <v>45.42768754176895</v>
+        <v>-10.44820514671702</v>
       </c>
       <c r="D10" t="n">
-        <v>8.464728355407715</v>
+        <v>5.328901290893555</v>
       </c>
       <c r="E10" t="n">
-        <v>9.400127410888672</v>
+        <v>5.751168727874756</v>
       </c>
       <c r="F10" t="n">
-        <v>7.524870872497559</v>
+        <v>4.824667453765869</v>
       </c>
       <c r="G10" t="n">
-        <v>85.37534836100293</v>
+        <v>78.75648094040741</v>
       </c>
       <c r="H10" t="n">
-        <v>4256.30322265625</v>
+        <v>5518.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8779153823852539</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07281243801116943</v>
+        <v>0.8789317011833191</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6930326223373413</v>
+        <v>1.028767466545105</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1586968533015434624</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1586968533013974528</t>
+          <t>3575733210778695808</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1586968533015434624</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>225.2329125375929</v>
+        <v>180.1856175191175</v>
       </c>
       <c r="C11" t="n">
-        <v>45.42768754176895</v>
+        <v>-10.44820514671702</v>
       </c>
       <c r="D11" t="n">
-        <v>8.464728355407715</v>
+        <v>5.328901290893555</v>
       </c>
       <c r="E11" t="n">
-        <v>9.400127410888672</v>
+        <v>5.751168727874756</v>
       </c>
       <c r="F11" t="n">
-        <v>7.524870872497559</v>
+        <v>4.824667453765869</v>
       </c>
       <c r="G11" t="n">
-        <v>85.37534836100293</v>
+        <v>78.75648094040741</v>
       </c>
       <c r="H11" t="n">
-        <v>4256.30322265625</v>
+        <v>5518.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8779153823852539</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07281243801116943</v>
+        <v>0.8789317011833191</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6930326223373413</v>
+        <v>1.028767466545105</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1586968533015434624</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1586968533015434624</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1586968533015434624</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>225.2329571292861</v>
+        <v>180.1856293061816</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.42773317280201</v>
+        <v>-10.44827200397585</v>
       </c>
       <c r="R11" t="n">
-        <v>8.467482566833496</v>
+        <v>5.355077266693115</v>
       </c>
       <c r="S11" t="n">
-        <v>9.381574630737305</v>
+        <v>5.731156826019287</v>
       </c>
       <c r="T11" t="n">
-        <v>7.508890628814697</v>
+        <v>4.805628299713135</v>
       </c>
       <c r="U11" t="n">
-        <v>1.872684001922607</v>
+        <v>0.9255285263061523</v>
       </c>
       <c r="V11" t="n">
-        <v>85.4119444807103</v>
+        <v>78.33591471044681</v>
       </c>
       <c r="W11" t="n">
-        <v>3601.6806640625</v>
+        <v>5510.12353515625</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.8779153823852539</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.07281243801116943</v>
+        <v>0.8789317011833191</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.6930326223373413</v>
+        <v>1.028767466545105</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>2043885295912608512</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>130.6865172420918</v>
+        <v>284.2576611101138</v>
       </c>
       <c r="C12" t="n">
-        <v>9.5539723965289</v>
+        <v>32.90073932392183</v>
       </c>
       <c r="D12" t="n">
-        <v>8.946824073791504</v>
+        <v>5.116928577423096</v>
       </c>
       <c r="E12" t="n">
-        <v>9.887347221374512</v>
+        <v>5.428450107574463</v>
       </c>
       <c r="F12" t="n">
-        <v>7.971009254455566</v>
+        <v>4.655242443084717</v>
       </c>
       <c r="G12" t="n">
-        <v>64.3680016469628</v>
+        <v>66.5742243900887</v>
       </c>
       <c r="H12" t="n">
-        <v>3873</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+        <v>5932</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>2043885295912608512</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>598180818531355776</t>
+          <t>2043885295914530944</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>2043885295912608512</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.6865172420918</v>
+        <v>284.2576611101138</v>
       </c>
       <c r="C13" t="n">
-        <v>9.5539723965289</v>
+        <v>32.90073932392183</v>
       </c>
       <c r="D13" t="n">
-        <v>8.946824073791504</v>
+        <v>5.116928577423096</v>
       </c>
       <c r="E13" t="n">
-        <v>9.887347221374512</v>
+        <v>5.428450107574463</v>
       </c>
       <c r="F13" t="n">
-        <v>7.971009254455566</v>
+        <v>4.655242443084717</v>
       </c>
       <c r="G13" t="n">
-        <v>64.3680016469628</v>
+        <v>66.5742243900887</v>
       </c>
       <c r="H13" t="n">
-        <v>3873</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+        <v>5932</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>2043885295912608512</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>2043885295914531072</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>2043885295914531072</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>130.6865487902776</v>
+        <v>284.2576882900034</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.553884675324547</v>
+        <v>32.90072064481614</v>
       </c>
       <c r="R13" t="n">
-        <v>8.95395565032959</v>
+        <v>5.174064636230469</v>
       </c>
       <c r="S13" t="n">
-        <v>9.869359970092773</v>
+        <v>5.388041973114014</v>
       </c>
       <c r="T13" t="n">
-        <v>7.95960807800293</v>
+        <v>4.608579635620117</v>
       </c>
       <c r="U13" t="n">
-        <v>1.909751892089844</v>
+        <v>0.7794623374938965</v>
       </c>
       <c r="V13" t="n">
-        <v>64.68101125800112</v>
+        <v>67.14120107780762</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5844.26416015625</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.020724296569824</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.511979103088379</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.199373006820679</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>3213958769587525888</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>180.1856175191175</v>
+        <v>79.80577003837008</v>
       </c>
       <c r="C14" t="n">
-        <v>-10.44820514671702</v>
+        <v>-3.073222913358394</v>
       </c>
       <c r="D14" t="n">
-        <v>5.328901290893555</v>
+        <v>7.478399753570557</v>
       </c>
       <c r="E14" t="n">
-        <v>5.751168727874756</v>
+        <v>8.042928695678711</v>
       </c>
       <c r="F14" t="n">
-        <v>4.824667453765869</v>
+        <v>6.742774486541748</v>
       </c>
       <c r="G14" t="n">
-        <v>78.75648094040741</v>
+        <v>63.65137588808516</v>
       </c>
       <c r="H14" t="n">
-        <v>5518.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.8779153823852539</v>
+        <v>4976</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8789317011833191</v>
+        <v>0.2233356088399887</v>
       </c>
       <c r="K14" t="n">
-        <v>1.028767466545105</v>
+        <v>0.748258650302887</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>3213958769587525888</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3575733210778695808</t>
+          <t>3213958769587525888</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>3213958769587525888</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>79.80586741563162</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-3.07320375008595</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7.49282169342041</v>
+      </c>
+      <c r="S14" t="n">
+        <v>8.024881362915039</v>
+      </c>
+      <c r="T14" t="n">
+        <v>6.745429039001465</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.279452323913574</v>
+      </c>
+      <c r="V14" t="n">
+        <v>63.64345779109681</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4587.14697265625</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.2233356088399887</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.748258650302887</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>3213958769587525888</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>180.1856175191175</v>
+        <v>79.80577003837008</v>
       </c>
       <c r="C15" t="n">
-        <v>-10.44820514671702</v>
+        <v>-3.073222913358394</v>
       </c>
       <c r="D15" t="n">
-        <v>5.328901290893555</v>
+        <v>7.478399753570557</v>
       </c>
       <c r="E15" t="n">
-        <v>5.751168727874756</v>
+        <v>8.042928695678711</v>
       </c>
       <c r="F15" t="n">
-        <v>4.824667453765869</v>
+        <v>6.742774486541748</v>
       </c>
       <c r="G15" t="n">
-        <v>78.75648094040741</v>
+        <v>63.65137588808516</v>
       </c>
       <c r="H15" t="n">
-        <v>5518.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.8779153823852539</v>
+        <v>4976</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8789317011833191</v>
+        <v>0.2233356088399887</v>
       </c>
       <c r="K15" t="n">
-        <v>1.028767466545105</v>
+        <v>0.748258650302887</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>3213958769587525888</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>3575733210781078016</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>180.1856293061816</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>-10.44827200397585</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5.355077266693115</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5.731156826019287</v>
-      </c>
-      <c r="T15" t="n">
-        <v>4.805628299713135</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.9255285263061523</v>
-      </c>
-      <c r="V15" t="n">
-        <v>78.33591471044681</v>
-      </c>
-      <c r="W15" t="n">
-        <v>5510.12353515625</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.8779153823852539</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.8789317011833191</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1.028767466545105</v>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>G</t>
+          <t>3213958769589070848</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>5426587107149861120</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.80577003837008</v>
+        <v>142.6740032632142</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.073222913358394</v>
+        <v>-40.466567086598</v>
       </c>
       <c r="D16" t="n">
-        <v>7.478399753570557</v>
+        <v>4.803853511810303</v>
       </c>
       <c r="E16" t="n">
-        <v>8.042928695678711</v>
+        <v>3.975138902664185</v>
       </c>
       <c r="F16" t="n">
-        <v>6.742774486541748</v>
+        <v>3.240525007247925</v>
       </c>
       <c r="G16" t="n">
-        <v>63.65137588808516</v>
+        <v>54.30532208415497</v>
       </c>
       <c r="H16" t="n">
-        <v>4976</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.2233356088399887</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.748258650302887</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+        <v>5095.63330078125</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>5426587107149861120</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>3213958769587525888</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>79.80586741563162</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-3.07320375008595</v>
-      </c>
-      <c r="R16" t="n">
-        <v>7.49282169342041</v>
-      </c>
-      <c r="S16" t="n">
-        <v>8.024881362915039</v>
-      </c>
-      <c r="T16" t="n">
-        <v>6.745429039001465</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.279452323913574</v>
-      </c>
-      <c r="V16" t="n">
-        <v>63.64345779109681</v>
-      </c>
-      <c r="W16" t="n">
-        <v>4587.14697265625</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.2233356088399887</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.748258650302887</v>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>K</t>
+          <t>5426587107145955712</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>5426587107149861120</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>79.80577003837008</v>
+        <v>142.6740032632142</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.073222913358394</v>
+        <v>-40.466567086598</v>
       </c>
       <c r="D17" t="n">
-        <v>7.478399753570557</v>
+        <v>4.803853511810303</v>
       </c>
       <c r="E17" t="n">
-        <v>8.042928695678711</v>
+        <v>3.975138902664185</v>
       </c>
       <c r="F17" t="n">
-        <v>6.742774486541748</v>
+        <v>3.240525007247925</v>
       </c>
       <c r="G17" t="n">
-        <v>63.65137588808516</v>
+        <v>54.30532208415497</v>
       </c>
       <c r="H17" t="n">
-        <v>4976</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.2233356088399887</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.748258650302887</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+        <v>5095.63330078125</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>5426587107149861120</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3213958769589070848</t>
+          <t>5426587107149861120</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>2595463996992115840</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>142.6740032632142</v>
+        <v>336.6440634509766</v>
       </c>
       <c r="C18" t="n">
-        <v>-40.466567086598</v>
+        <v>-16.74185644464832</v>
       </c>
       <c r="D18" t="n">
-        <v>4.803853511810303</v>
+        <v>6.198555946350098</v>
       </c>
       <c r="E18" t="n">
-        <v>3.975138902664185</v>
+        <v>6.208871841430664</v>
       </c>
       <c r="F18" t="n">
-        <v>3.240525007247925</v>
+        <v>5.265100002288818</v>
       </c>
       <c r="G18" t="n">
-        <v>54.30532208415497</v>
+        <v>51.50789426625737</v>
       </c>
       <c r="H18" t="n">
-        <v>5095.63330078125</v>
+        <v>5143.4501953125</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>2595463996992115840</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>5426587107145955712</t>
+          <t>2595463992699783424</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>2595463996992115840</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>142.6740032632142</v>
+        <v>336.6440634509766</v>
       </c>
       <c r="C19" t="n">
-        <v>-40.466567086598</v>
+        <v>-16.74185644464832</v>
       </c>
       <c r="D19" t="n">
-        <v>4.803853511810303</v>
+        <v>6.198555946350098</v>
       </c>
       <c r="E19" t="n">
-        <v>3.975138902664185</v>
+        <v>6.208871841430664</v>
       </c>
       <c r="F19" t="n">
-        <v>3.240525007247925</v>
+        <v>5.265100002288818</v>
       </c>
       <c r="G19" t="n">
-        <v>54.30532208415497</v>
+        <v>51.50789426625737</v>
       </c>
       <c r="H19" t="n">
-        <v>5095.63330078125</v>
+        <v>5143.4501953125</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>2595463996992115840</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>2595463996992115840</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>1462061709995883136</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>336.6440634509766</v>
+        <v>200.8842654175768</v>
       </c>
       <c r="C20" t="n">
-        <v>-16.74185644464832</v>
+        <v>29.23855213046302</v>
       </c>
       <c r="D20" t="n">
-        <v>6.198555946350098</v>
+        <v>8.831394195556641</v>
       </c>
       <c r="E20" t="n">
-        <v>6.208871841430664</v>
+        <v>9.585915565490723</v>
       </c>
       <c r="F20" t="n">
-        <v>5.265100002288818</v>
+        <v>7.818288326263428</v>
       </c>
       <c r="G20" t="n">
-        <v>51.50789426625737</v>
+        <v>55.12479618884052</v>
       </c>
       <c r="H20" t="n">
-        <v>5143.4501953125</v>
+        <v>4109</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6421307921409607</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.107005387544632</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.7143532633781433</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>1462061709995883136</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2595463992699783424</t>
+          <t>1462061709995883136</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1462061709995883136</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>200.8841905787304</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>29.2385865148712</v>
+      </c>
+      <c r="R20" t="n">
+        <v>8.844668388366699</v>
+      </c>
+      <c r="S20" t="n">
+        <v>9.575559616088867</v>
+      </c>
+      <c r="T20" t="n">
+        <v>7.798164844512939</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.777394771575928</v>
+      </c>
+      <c r="V20" t="n">
+        <v>55.20998508388942</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3905.4169921875</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.6421307921409607</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.107005387544632</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.7143532633781433</v>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>1462061709995883136</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>336.6440634509766</v>
+        <v>200.8842654175768</v>
       </c>
       <c r="C21" t="n">
-        <v>-16.74185644464832</v>
+        <v>29.23855213046302</v>
       </c>
       <c r="D21" t="n">
-        <v>6.198555946350098</v>
+        <v>8.831394195556641</v>
       </c>
       <c r="E21" t="n">
-        <v>6.208871841430664</v>
+        <v>9.585915565490723</v>
       </c>
       <c r="F21" t="n">
-        <v>5.265100002288818</v>
+        <v>7.818288326263428</v>
       </c>
       <c r="G21" t="n">
-        <v>51.50789426625737</v>
+        <v>55.12479618884052</v>
       </c>
       <c r="H21" t="n">
-        <v>5143.4501953125</v>
+        <v>4109</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6421307921409607</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.107005387544632</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.7143532633781433</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>1462061709995883136</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>1462061709996744448</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1462061709995883136</t>
+          <t>2974726131970829952</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>200.8842654175768</v>
+        <v>75.61785590280779</v>
       </c>
       <c r="C22" t="n">
-        <v>29.23855213046302</v>
+        <v>-21.25784077680808</v>
       </c>
       <c r="D22" t="n">
-        <v>8.831394195556641</v>
+        <v>7.750740051269531</v>
       </c>
       <c r="E22" t="n">
-        <v>9.585915565490723</v>
+        <v>8.57557487487793</v>
       </c>
       <c r="F22" t="n">
-        <v>7.818288326263428</v>
+        <v>6.656546115875244</v>
       </c>
       <c r="G22" t="n">
-        <v>55.12479618884052</v>
+        <v>119.3398737310191</v>
       </c>
       <c r="H22" t="n">
-        <v>4109</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.6421307921409607</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.107005387544632</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.7143532633781433</v>
+        <v>4063.596435546875</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1720,51 +1722,39 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1462061709995883136</t>
+          <t>2974726131970829952</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1462061709995883136</t>
+          <t>2974726131970829952</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1462061709995883136</t>
+          <t>2974726131970829952</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>200.8841905787304</v>
+        <v>75.6178310374648</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.2385865148712</v>
+        <v>-21.25787832693494</v>
       </c>
       <c r="R22" t="n">
-        <v>8.844668388366699</v>
+        <v>7.792407512664795</v>
       </c>
       <c r="S22" t="n">
-        <v>9.575559616088867</v>
+        <v>8.551479339599609</v>
       </c>
       <c r="T22" t="n">
-        <v>7.798164844512939</v>
+        <v>6.645774841308594</v>
       </c>
       <c r="U22" t="n">
-        <v>1.777394771575928</v>
+        <v>1.905704498291016</v>
       </c>
       <c r="V22" t="n">
-        <v>55.20998508388942</v>
-      </c>
-      <c r="W22" t="n">
-        <v>3905.4169921875</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.6421307921409607</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0.107005387544632</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.7143532633781433</v>
+        <v>119.5737439372057</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
@@ -1775,38 +1765,29 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1462061709995883136</t>
+          <t>2974726131970829952</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>200.8842654175768</v>
+        <v>75.61785590280779</v>
       </c>
       <c r="C23" t="n">
-        <v>29.23855213046302</v>
+        <v>-21.25784077680808</v>
       </c>
       <c r="D23" t="n">
-        <v>8.831394195556641</v>
+        <v>7.750740051269531</v>
       </c>
       <c r="E23" t="n">
-        <v>9.585915565490723</v>
+        <v>8.57557487487793</v>
       </c>
       <c r="F23" t="n">
-        <v>7.818288326263428</v>
+        <v>6.656546115875244</v>
       </c>
       <c r="G23" t="n">
-        <v>55.12479618884052</v>
+        <v>119.3398737310191</v>
       </c>
       <c r="H23" t="n">
-        <v>4109</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.6421307921409607</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.107005387544632</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.7143532633781433</v>
+        <v>4063.596435546875</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1815,41 +1796,50 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1462061709995883136</t>
+          <t>2974726131970829952</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1462061709996744448</t>
+          <t>2974726136265625088</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>3943232534138172672</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.61785590280779</v>
+        <v>196.5638957330539</v>
       </c>
       <c r="C24" t="n">
-        <v>-21.25784077680808</v>
+        <v>20.72965678223564</v>
       </c>
       <c r="D24" t="n">
-        <v>7.750740051269531</v>
+        <v>8.969438552856445</v>
       </c>
       <c r="E24" t="n">
-        <v>8.57557487487793</v>
+        <v>9.729983329772949</v>
       </c>
       <c r="F24" t="n">
-        <v>6.656546115875244</v>
+        <v>8.007077217102051</v>
       </c>
       <c r="G24" t="n">
-        <v>119.3398737310191</v>
+        <v>50.90347875548716</v>
       </c>
       <c r="H24" t="n">
-        <v>4063.596435546875</v>
+        <v>4122.9033203125</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6415486335754395</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.10798329859972</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.6824297308921814</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1858,72 +1848,50 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>3943232534138172672</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>2974726131970829952</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>75.6178310374648</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>-21.25787832693494</v>
-      </c>
-      <c r="R24" t="n">
-        <v>7.792407512664795</v>
-      </c>
-      <c r="S24" t="n">
-        <v>8.551479339599609</v>
-      </c>
-      <c r="T24" t="n">
-        <v>6.645774841308594</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.905704498291016</v>
-      </c>
-      <c r="V24" t="n">
-        <v>119.5737439372057</v>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>K</t>
+          <t>3943232534137347072</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>3943232534138172672</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.61785590280779</v>
+        <v>196.5638957330539</v>
       </c>
       <c r="C25" t="n">
-        <v>-21.25784077680808</v>
+        <v>20.72965678223564</v>
       </c>
       <c r="D25" t="n">
-        <v>7.750740051269531</v>
+        <v>8.969438552856445</v>
       </c>
       <c r="E25" t="n">
-        <v>8.57557487487793</v>
+        <v>9.729983329772949</v>
       </c>
       <c r="F25" t="n">
-        <v>6.656546115875244</v>
+        <v>8.007077217102051</v>
       </c>
       <c r="G25" t="n">
-        <v>119.3398737310191</v>
+        <v>50.90347875548716</v>
       </c>
       <c r="H25" t="n">
-        <v>4063.596435546875</v>
+        <v>4122.9033203125</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6415486335754395</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.10798329859972</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.6824297308921814</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1932,159 +1900,174 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>3943232534138172672</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2974726136265625088</t>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>196.563887451697</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>20.72966994150692</v>
+      </c>
+      <c r="R25" t="n">
+        <v>8.973732948303223</v>
+      </c>
+      <c r="S25" t="n">
+        <v>9.684998512268066</v>
+      </c>
+      <c r="T25" t="n">
+        <v>8.016292572021484</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.668705940246582</v>
+      </c>
+      <c r="V25" t="n">
+        <v>50.80727454464759</v>
+      </c>
+      <c r="W25" t="n">
+        <v>4006.371826171875</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.6415486335754395</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.10798329859972</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.6824297308921814</v>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>4590758227640885248</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>196.5638957330539</v>
+        <v>271.7561269586085</v>
       </c>
       <c r="C26" t="n">
-        <v>20.72965678223564</v>
+        <v>30.56233941836619</v>
       </c>
       <c r="D26" t="n">
-        <v>8.969438552856445</v>
+        <v>4.892927646636963</v>
       </c>
       <c r="E26" t="n">
-        <v>9.729983329772949</v>
+        <v>5.211727142333984</v>
       </c>
       <c r="F26" t="n">
-        <v>8.007077217102051</v>
+        <v>4.491597652435303</v>
       </c>
       <c r="G26" t="n">
-        <v>50.90347875548716</v>
+        <v>63.53576695184549</v>
       </c>
       <c r="H26" t="n">
-        <v>4122.9033203125</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.6415486335754395</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.10798329859972</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.6824297308921814</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+        <v>6009</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>4590758227640885248</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>3943232534137347072</t>
+          <t>4590758227637479040</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>4590758227640885248</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.5638957330539</v>
+        <v>271.7561269586085</v>
       </c>
       <c r="C27" t="n">
-        <v>20.72965678223564</v>
+        <v>30.56233941836619</v>
       </c>
       <c r="D27" t="n">
-        <v>8.969438552856445</v>
+        <v>4.892927646636963</v>
       </c>
       <c r="E27" t="n">
-        <v>9.729983329772949</v>
+        <v>5.211727142333984</v>
       </c>
       <c r="F27" t="n">
-        <v>8.007077217102051</v>
+        <v>4.491597652435303</v>
       </c>
       <c r="G27" t="n">
-        <v>50.90347875548716</v>
+        <v>63.53576695184549</v>
       </c>
       <c r="H27" t="n">
-        <v>4122.9033203125</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.6415486335754395</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.10798329859972</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.6824297308921814</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+        <v>6009</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>4590758227640885248</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>4590758227641991424</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>4590758227641991424</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>196.563887451697</v>
+        <v>271.7561108311563</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.72966994150692</v>
+        <v>30.56234690690805</v>
       </c>
       <c r="R27" t="n">
-        <v>8.973732948303223</v>
+        <v>4.947728157043457</v>
       </c>
       <c r="S27" t="n">
-        <v>9.684998512268066</v>
+        <v>5.195022583007812</v>
       </c>
       <c r="T27" t="n">
-        <v>8.016292572021484</v>
+        <v>4.432231903076172</v>
       </c>
       <c r="U27" t="n">
-        <v>1.668705940246582</v>
+        <v>0.7627906799316406</v>
       </c>
       <c r="V27" t="n">
-        <v>50.80727454464759</v>
+        <v>63.39426362278724</v>
       </c>
       <c r="W27" t="n">
-        <v>4006.371826171875</v>
+        <v>5925.45263671875</v>
       </c>
       <c r="X27" t="n">
-        <v>0.6415486335754395</v>
+        <v>1.053006649017334</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.10798329859972</v>
+        <v>2.019006729125977</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.6824297308921814</v>
+        <v>1.348439812660217</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>F</t>
         </is>
       </c>
     </row>

--- a/results/repeated_entries.xlsx
+++ b/results/repeated_entries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,10 +440,10 @@
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
     <col width="24" customWidth="1" min="12" max="12"/>
     <col width="21" customWidth="1" min="13" max="13"/>
     <col width="21" customWidth="1" min="14" max="14"/>
@@ -455,10 +455,10 @@
     <col width="22" customWidth="1" min="20" max="20"/>
     <col width="20" customWidth="1" min="21" max="21"/>
     <col width="19" customWidth="1" min="22" max="22"/>
-    <col width="19" customWidth="1" min="23" max="23"/>
-    <col width="20" customWidth="1" min="24" max="24"/>
-    <col width="20" customWidth="1" min="25" max="25"/>
-    <col width="20" customWidth="1" min="26" max="26"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+    <col width="16" customWidth="1" min="24" max="24"/>
+    <col width="15" customWidth="1" min="25" max="25"/>
+    <col width="18" customWidth="1" min="26" max="26"/>
     <col width="24" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
@@ -602,29 +602,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
+          <t>776067089642433664</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.65646942221296</v>
+        <v>161.3393177357646</v>
       </c>
       <c r="C2" t="n">
-        <v>2.602451244119687</v>
+        <v>38.51241559503183</v>
       </c>
       <c r="D2" t="n">
-        <v>7.53508996963501</v>
+        <v>8.667779922485352</v>
       </c>
       <c r="E2" t="n">
-        <v>8.008501052856445</v>
+        <v>9.488222122192383</v>
       </c>
       <c r="F2" t="n">
-        <v>6.799147129058838</v>
+        <v>7.58256721496582</v>
       </c>
       <c r="G2" t="n">
-        <v>50.39430355852318</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4837</v>
+        <v>72.98709001875206</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4100.0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.07476281</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.5419107</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -633,41 +645,84 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
+          <t>776067089642433664</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3234412602147418496</t>
+          <t>776067089642433664</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>776067089642433664</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>161.3393108665803</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>38.51243753117977</v>
+      </c>
+      <c r="R2" t="n">
+        <v>8.691554069519043</v>
+      </c>
+      <c r="S2" t="n">
+        <v>9.458678245544434</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7.571324825286865</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.887353420257568</v>
+      </c>
+      <c r="V2" t="n">
+        <v>72.12030429452771</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
+          <t>776067089642433664</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.65646942221296</v>
+        <v>161.3393177357646</v>
       </c>
       <c r="C3" t="n">
-        <v>2.602451244119687</v>
+        <v>38.51241559503183</v>
       </c>
       <c r="D3" t="n">
-        <v>7.53508996963501</v>
+        <v>8.667779922485352</v>
       </c>
       <c r="E3" t="n">
-        <v>8.008501052856445</v>
+        <v>9.488222122192383</v>
       </c>
       <c r="F3" t="n">
-        <v>6.799147129058838</v>
+        <v>7.58256721496582</v>
       </c>
       <c r="G3" t="n">
-        <v>50.39430355852318</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4837</v>
+        <v>72.98709001875206</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4100.0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.07476281</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.5419107</t>
+        </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -676,119 +731,178 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
+          <t>776067089642433664</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>3234412606443085824</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>80.65647842134706</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.602426364625909</v>
-      </c>
-      <c r="R3" t="n">
-        <v>7.574897766113281</v>
-      </c>
-      <c r="S3" t="n">
-        <v>7.974358558654785</v>
-      </c>
-      <c r="T3" t="n">
-        <v>6.771440029144287</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.202918529510498</v>
-      </c>
-      <c r="V3" t="n">
-        <v>50.51711071904607</v>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>K</t>
+          <t>776067093937332992</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>3234412606443085824</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.6054157588619</v>
+        <v>80.65646942221296</v>
       </c>
       <c r="C4" t="n">
-        <v>-37.06488085942344</v>
+        <v>2.602451244119687</v>
       </c>
       <c r="D4" t="n">
-        <v>4.717123985290527</v>
+        <v>7.53508996963501</v>
       </c>
       <c r="E4" t="n">
-        <v>4.816995620727539</v>
+        <v>8.008501052856445</v>
       </c>
       <c r="F4" t="n">
-        <v>4.114394664764404</v>
+        <v>6.799147129058838</v>
       </c>
       <c r="G4" t="n">
-        <v>57.85828017971518</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6022</v>
+        <v>50.39430355852318</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4837.0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.803856</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.287645</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.6787785</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>3234412606443085824</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>3234412602147418496</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>3234412606443085824</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>286.6053079615535</v>
+        <v>80.65646942221296</v>
       </c>
       <c r="C5" t="n">
-        <v>-37.06450354954132</v>
+        <v>2.602451244119687</v>
       </c>
       <c r="D5" t="n">
-        <v>4.760257244110107</v>
+        <v>7.53508996963501</v>
       </c>
       <c r="E5" t="n">
-        <v>4.791435241699219</v>
+        <v>8.008501052856445</v>
       </c>
       <c r="F5" t="n">
-        <v>3.94169807434082</v>
+        <v>6.799147129058838</v>
       </c>
       <c r="G5" t="n">
-        <v>58.69555998807621</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5190.33349609375</v>
+        <v>50.39430355852318</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4837.0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.803856</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.287645</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.6787785</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>3234412606443085824</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>3234412606443085824</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3234412606443085824</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>80.65647842134706</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.602426364625909</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7.574897766113281</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7.974358558654785</v>
+      </c>
+      <c r="T5" t="n">
+        <v>6.771440029144287</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.202918529510498</v>
+      </c>
+      <c r="V5" t="n">
+        <v>50.51711071904607</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0.803856</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0.287645</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0.6787785</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>K</t>
         </is>
       </c>
     </row>
@@ -816,8 +930,20 @@
       <c r="G6" t="n">
         <v>57.85828017971518</v>
       </c>
-      <c r="H6" t="n">
-        <v>6022</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6022.0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2.852196</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.5515323</t>
+        </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -826,7 +952,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>6719152945029845376</t>
         </is>
       </c>
     </row>
@@ -854,8 +980,10 @@
       <c r="G7" t="n">
         <v>58.69555998807621</v>
       </c>
-      <c r="H7" t="n">
-        <v>5190.33349609375</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>5190.3335</t>
+        </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -864,856 +992,976 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>6719152945029845376</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>6719152945029845376</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>130.6865172420918</v>
+        <v>286.6054157588619</v>
       </c>
       <c r="C8" t="n">
-        <v>9.5539723965289</v>
+        <v>-37.06488085942344</v>
       </c>
       <c r="D8" t="n">
-        <v>8.946824073791504</v>
+        <v>4.717123985290527</v>
       </c>
       <c r="E8" t="n">
-        <v>9.887347221374512</v>
+        <v>4.816995620727539</v>
       </c>
       <c r="F8" t="n">
-        <v>7.971009254455566</v>
+        <v>4.114394664764404</v>
       </c>
       <c r="G8" t="n">
-        <v>64.3680016469628</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3873</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>K</t>
+        <v>57.85828017971518</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6022.0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2.852196</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1.5515323</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>6719152945029845376</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>598180818531355776</t>
+          <t>6719152945032456832</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>6719152945032456832</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>130.6865172420918</v>
+        <v>286.6053079615535</v>
       </c>
       <c r="C9" t="n">
-        <v>9.5539723965289</v>
+        <v>-37.06450354954132</v>
       </c>
       <c r="D9" t="n">
-        <v>8.946824073791504</v>
+        <v>4.760257244110107</v>
       </c>
       <c r="E9" t="n">
-        <v>9.887347221374512</v>
+        <v>4.791435241699219</v>
       </c>
       <c r="F9" t="n">
-        <v>7.971009254455566</v>
+        <v>3.94169807434082</v>
       </c>
       <c r="G9" t="n">
-        <v>64.3680016469628</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3873</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>K</t>
+        <v>58.69555998807621</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5190.3335</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>6719152945032456832</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>598180818531935232</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>130.6865487902776</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>9.553884675324547</v>
-      </c>
-      <c r="R9" t="n">
-        <v>8.95395565032959</v>
-      </c>
-      <c r="S9" t="n">
-        <v>9.869359970092773</v>
-      </c>
-      <c r="T9" t="n">
-        <v>7.95960807800293</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.909751892089844</v>
-      </c>
-      <c r="V9" t="n">
-        <v>64.68101125800112</v>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>K</t>
+          <t>6719152945032456832</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>1586968533015434624</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>180.1856175191175</v>
+        <v>225.2329125375929</v>
       </c>
       <c r="C10" t="n">
-        <v>-10.44820514671702</v>
+        <v>45.42768754176895</v>
       </c>
       <c r="D10" t="n">
-        <v>5.328901290893555</v>
+        <v>8.464728355407715</v>
       </c>
       <c r="E10" t="n">
-        <v>5.751168727874756</v>
+        <v>9.400127410888672</v>
       </c>
       <c r="F10" t="n">
-        <v>4.824667453765869</v>
+        <v>7.524870872497559</v>
       </c>
       <c r="G10" t="n">
-        <v>78.75648094040741</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5518.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.8779153823852539</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.8789317011833191</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.028767466545105</v>
+        <v>85.37534836100293</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3601.6807</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.07281244</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.6930326</t>
+        </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>1586968533015434624</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3575733210778695808</t>
+          <t>1586968533013974528</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>1586968533015434624</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>180.1856175191175</v>
+        <v>225.2329125375929</v>
       </c>
       <c r="C11" t="n">
-        <v>-10.44820514671702</v>
+        <v>45.42768754176895</v>
       </c>
       <c r="D11" t="n">
-        <v>5.328901290893555</v>
+        <v>8.464728355407715</v>
       </c>
       <c r="E11" t="n">
-        <v>5.751168727874756</v>
+        <v>9.400127410888672</v>
       </c>
       <c r="F11" t="n">
-        <v>4.824667453765869</v>
+        <v>7.524870872497559</v>
       </c>
       <c r="G11" t="n">
-        <v>78.75648094040741</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5518.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.8779153823852539</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.8789317011833191</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.028767466545105</v>
+        <v>85.37534836100293</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3601.6807</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.07281244</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.6930326</t>
+        </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>1586968533015434624</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>1586968533015434624</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>1586968533015434624</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>180.1856293061816</v>
+        <v>225.2329571292861</v>
       </c>
       <c r="Q11" t="n">
-        <v>-10.44827200397585</v>
+        <v>45.42773317280201</v>
       </c>
       <c r="R11" t="n">
-        <v>5.355077266693115</v>
+        <v>8.467482566833496</v>
       </c>
       <c r="S11" t="n">
-        <v>5.731156826019287</v>
+        <v>9.381574630737305</v>
       </c>
       <c r="T11" t="n">
-        <v>4.805628299713135</v>
+        <v>7.508890628814697</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9255285263061523</v>
+        <v>1.872684001922607</v>
       </c>
       <c r="V11" t="n">
-        <v>78.33591471044681</v>
-      </c>
-      <c r="W11" t="n">
-        <v>5510.12353515625</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.8779153823852539</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.8789317011833191</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1.028767466545105</v>
+        <v>85.4119444807103</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>3601.6807</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0.07281244</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0.6930326</t>
+        </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2043885295912608512</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>284.2576611101138</v>
+        <v>130.6865172420918</v>
       </c>
       <c r="C12" t="n">
-        <v>32.90073932392183</v>
+        <v>9.5539723965289</v>
       </c>
       <c r="D12" t="n">
-        <v>5.116928577423096</v>
+        <v>8.946824073791504</v>
       </c>
       <c r="E12" t="n">
-        <v>5.428450107574463</v>
+        <v>9.887347221374512</v>
       </c>
       <c r="F12" t="n">
-        <v>4.655242443084717</v>
+        <v>7.971009254455566</v>
       </c>
       <c r="G12" t="n">
-        <v>66.5742243900887</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5932</v>
+        <v>64.3680016469628</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3873.0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.3356494</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1.2673832</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2043885295912608512</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2043885295914530944</t>
+          <t>598180818531355776</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2043885295912608512</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>284.2576611101138</v>
+        <v>130.6865172420918</v>
       </c>
       <c r="C13" t="n">
-        <v>32.90073932392183</v>
+        <v>9.5539723965289</v>
       </c>
       <c r="D13" t="n">
-        <v>5.116928577423096</v>
+        <v>8.946824073791504</v>
       </c>
       <c r="E13" t="n">
-        <v>5.428450107574463</v>
+        <v>9.887347221374512</v>
       </c>
       <c r="F13" t="n">
-        <v>4.655242443084717</v>
+        <v>7.971009254455566</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5742243900887</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5932</v>
+        <v>64.3680016469628</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3873.0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.3356494</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1.2673832</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2043885295912608512</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2043885295914531072</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2043885295914531072</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>284.2576882900034</v>
+        <v>130.6865487902776</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.90072064481614</v>
+        <v>9.553884675324547</v>
       </c>
       <c r="R13" t="n">
-        <v>5.174064636230469</v>
+        <v>8.95395565032959</v>
       </c>
       <c r="S13" t="n">
-        <v>5.388041973114014</v>
+        <v>9.869359970092773</v>
       </c>
       <c r="T13" t="n">
-        <v>4.608579635620117</v>
+        <v>7.95960807800293</v>
       </c>
       <c r="U13" t="n">
-        <v>0.7794623374938965</v>
+        <v>1.909751892089844</v>
       </c>
       <c r="V13" t="n">
-        <v>67.14120107780762</v>
-      </c>
-      <c r="W13" t="n">
-        <v>5844.26416015625</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.020724296569824</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.511979103088379</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1.199373006820679</v>
+        <v>64.68101125800112</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0.3356494</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>1.2673832</t>
+        </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.80577003837008</v>
+        <v>180.1856175191175</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.073222913358394</v>
+        <v>-10.44820514671702</v>
       </c>
       <c r="D14" t="n">
-        <v>7.478399753570557</v>
+        <v>5.328901290893555</v>
       </c>
       <c r="E14" t="n">
-        <v>8.042928695678711</v>
+        <v>5.751168727874756</v>
       </c>
       <c r="F14" t="n">
-        <v>6.742774486541748</v>
+        <v>4.824667453765869</v>
       </c>
       <c r="G14" t="n">
-        <v>63.65137588808516</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4976</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.2233356088399887</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.748258650302887</v>
+        <v>78.75648094040741</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>5510.1235</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.8837685</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.859334</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1.0129887</t>
+        </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>3213958769587525888</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>79.80586741563162</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>-3.07320375008595</v>
-      </c>
-      <c r="R14" t="n">
-        <v>7.49282169342041</v>
-      </c>
-      <c r="S14" t="n">
-        <v>8.024881362915039</v>
-      </c>
-      <c r="T14" t="n">
-        <v>6.745429039001465</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.279452323913574</v>
-      </c>
-      <c r="V14" t="n">
-        <v>63.64345779109681</v>
-      </c>
-      <c r="W14" t="n">
-        <v>4587.14697265625</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.2233356088399887</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.748258650302887</v>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>K</t>
+          <t>3575733210778695808</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.80577003837008</v>
+        <v>180.1856175191175</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.073222913358394</v>
+        <v>-10.44820514671702</v>
       </c>
       <c r="D15" t="n">
-        <v>7.478399753570557</v>
+        <v>5.328901290893555</v>
       </c>
       <c r="E15" t="n">
-        <v>8.042928695678711</v>
+        <v>5.751168727874756</v>
       </c>
       <c r="F15" t="n">
-        <v>6.742774486541748</v>
+        <v>4.824667453765869</v>
       </c>
       <c r="G15" t="n">
-        <v>63.65137588808516</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4976</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.2233356088399887</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.748258650302887</v>
+        <v>78.75648094040741</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>5510.1235</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.8837685</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.859334</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1.0129887</t>
+        </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3213958769589070848</t>
+          <t>3575733210781078016</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>3575733210781078016</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>180.1856293061816</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-10.44827200397585</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5.355077266693115</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5.731156826019287</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4.805628299713135</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.9255285263061523</v>
+      </c>
+      <c r="V15" t="n">
+        <v>78.33591471044681</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>5510.1235</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>0.8837685</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0.859334</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>1.0129887</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>756853643637996160</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.6740032632142</v>
+        <v>169.543435666958</v>
       </c>
       <c r="C16" t="n">
-        <v>-40.466567086598</v>
+        <v>31.5264998339419</v>
       </c>
       <c r="D16" t="n">
-        <v>4.803853511810303</v>
+        <v>4.594314098358154</v>
       </c>
       <c r="E16" t="n">
-        <v>3.975138902664185</v>
+        <v>7.022503852844238</v>
       </c>
       <c r="F16" t="n">
-        <v>3.240525007247925</v>
+        <v>3.809747219085693</v>
       </c>
       <c r="G16" t="n">
-        <v>54.30532208415497</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5095.63330078125</v>
+        <v>114.4866699181447</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>3821.5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1.5513859</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2.8414814</t>
+        </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>756853643637996160</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>5426587107145955712</t>
+          <t>756853643637996160</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>756853643637996160</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>142.6740032632142</v>
+        <v>169.543435666958</v>
       </c>
       <c r="C17" t="n">
-        <v>-40.466567086598</v>
+        <v>31.5264998339419</v>
       </c>
       <c r="D17" t="n">
-        <v>4.803853511810303</v>
+        <v>4.594314098358154</v>
       </c>
       <c r="E17" t="n">
-        <v>3.975138902664185</v>
+        <v>7.022503852844238</v>
       </c>
       <c r="F17" t="n">
-        <v>3.240525007247925</v>
+        <v>3.809747219085693</v>
       </c>
       <c r="G17" t="n">
-        <v>54.30532208415497</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5095.63330078125</v>
+        <v>114.4866699181447</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>3821.5</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1.5513859</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2.8414814</t>
+        </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>756853643637996160</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>756853643638639104</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>2043885295908064128</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>336.6440634509766</v>
+        <v>284.2572876496914</v>
       </c>
       <c r="C18" t="n">
-        <v>-16.74185644464832</v>
+        <v>32.90057478653039</v>
       </c>
       <c r="D18" t="n">
-        <v>6.198555946350098</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6.208871841430664</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5.265100002288818</v>
+        <v>7.467142105102539</v>
       </c>
       <c r="G18" t="n">
-        <v>51.50789426625737</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5143.4501953125</v>
+        <v>67.78145508350882</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>2043885295908064128</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2595463992699783424</t>
+          <t>2043885295914530944</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>2043885295912608512</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>336.6440634509766</v>
+        <v>284.2576611101138</v>
       </c>
       <c r="C19" t="n">
-        <v>-16.74185644464832</v>
+        <v>32.90073932392183</v>
       </c>
       <c r="D19" t="n">
-        <v>6.198555946350098</v>
+        <v>5.116928577423096</v>
       </c>
       <c r="E19" t="n">
-        <v>6.208871841430664</v>
+        <v>5.428450107574463</v>
       </c>
       <c r="F19" t="n">
-        <v>5.265100002288818</v>
+        <v>4.655242443084717</v>
       </c>
       <c r="G19" t="n">
-        <v>51.50789426625737</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5143.4501953125</v>
+        <v>66.5742243900887</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>5932.0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1.4960319</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1.1580325</t>
+        </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>2043885295912608512</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>2043885295914530944</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1462061709995883136</t>
+          <t>2043885295908064128</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>200.8842654175768</v>
+        <v>284.2572876496914</v>
       </c>
       <c r="C20" t="n">
-        <v>29.23855213046302</v>
+        <v>32.90057478653039</v>
       </c>
       <c r="D20" t="n">
-        <v>8.831394195556641</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9.585915565490723</v>
-      </c>
-      <c r="F20" t="n">
-        <v>7.818288326263428</v>
+        <v>7.467142105102539</v>
       </c>
       <c r="G20" t="n">
-        <v>55.12479618884052</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4109</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.6421307921409607</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.107005387544632</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.7143532633781433</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+        <v>67.78145508350882</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1462061709995883136</t>
+          <t>2043885295908064128</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1462061709995883136</t>
+          <t>2043885295914531072</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1462061709995883136</t>
+          <t>2043885295914531072</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>200.8841905787304</v>
+        <v>284.2576882900034</v>
       </c>
       <c r="Q20" t="n">
-        <v>29.2385865148712</v>
+        <v>32.90072064481614</v>
       </c>
       <c r="R20" t="n">
-        <v>8.844668388366699</v>
+        <v>5.174064636230469</v>
       </c>
       <c r="S20" t="n">
-        <v>9.575559616088867</v>
+        <v>5.388041973114014</v>
       </c>
       <c r="T20" t="n">
-        <v>7.798164844512939</v>
+        <v>4.608579635620117</v>
       </c>
       <c r="U20" t="n">
-        <v>1.777394771575928</v>
+        <v>0.7794623374938965</v>
       </c>
       <c r="V20" t="n">
-        <v>55.20998508388942</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3905.4169921875</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.6421307921409607</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.107005387544632</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.7143532633781433</v>
+        <v>67.14120107780762</v>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>5844.264</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>1.003235</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>1.430304</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>1.2696646</t>
+        </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1462061709995883136</t>
+          <t>2043885295912608512</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>200.8842654175768</v>
+        <v>284.2576611101138</v>
       </c>
       <c r="C21" t="n">
-        <v>29.23855213046302</v>
+        <v>32.90073932392183</v>
       </c>
       <c r="D21" t="n">
-        <v>8.831394195556641</v>
+        <v>5.116928577423096</v>
       </c>
       <c r="E21" t="n">
-        <v>9.585915565490723</v>
+        <v>5.428450107574463</v>
       </c>
       <c r="F21" t="n">
-        <v>7.818288326263428</v>
+        <v>4.655242443084717</v>
       </c>
       <c r="G21" t="n">
-        <v>55.12479618884052</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4109</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.6421307921409607</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.107005387544632</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.7143532633781433</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>K</t>
+        <v>66.5742243900887</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>5932.0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1.4960319</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1.1580325</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1462061709995883136</t>
+          <t>2043885295912608512</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1462061709996744448</t>
+          <t>2043885295914531072</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2043885295914531072</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>284.2576882900034</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>32.90072064481614</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5.174064636230469</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5.388041973114014</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4.608579635620117</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.7794623374938965</v>
+      </c>
+      <c r="V21" t="n">
+        <v>67.14120107780762</v>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>5844.264</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>1.003235</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>1.430304</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>1.2696646</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>unknown</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>3213958769587525888</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.61785590280779</v>
+        <v>79.80577003837008</v>
       </c>
       <c r="C22" t="n">
-        <v>-21.25784077680808</v>
+        <v>-3.073222913358394</v>
       </c>
       <c r="D22" t="n">
-        <v>7.750740051269531</v>
+        <v>7.478399753570557</v>
       </c>
       <c r="E22" t="n">
-        <v>8.57557487487793</v>
+        <v>8.042928695678711</v>
       </c>
       <c r="F22" t="n">
-        <v>6.656546115875244</v>
+        <v>6.742774486541748</v>
       </c>
       <c r="G22" t="n">
-        <v>119.3398737310191</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4063.596435546875</v>
+        <v>63.65137588808516</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>4587.147</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.22333561</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.74825865</t>
+        </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1722,39 +1970,54 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>3213958769587525888</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>3213958769587525888</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>3213958769587525888</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>75.6178310374648</v>
+        <v>79.80586741563162</v>
       </c>
       <c r="Q22" t="n">
-        <v>-21.25787832693494</v>
+        <v>-3.07320375008595</v>
       </c>
       <c r="R22" t="n">
-        <v>7.792407512664795</v>
+        <v>7.49282169342041</v>
       </c>
       <c r="S22" t="n">
-        <v>8.551479339599609</v>
+        <v>8.024881362915039</v>
       </c>
       <c r="T22" t="n">
-        <v>6.645774841308594</v>
+        <v>6.745429039001465</v>
       </c>
       <c r="U22" t="n">
-        <v>1.905704498291016</v>
+        <v>1.279452323913574</v>
       </c>
       <c r="V22" t="n">
-        <v>119.5737439372057</v>
+        <v>63.64345779109681</v>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>4587.147</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>0.22333561</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>0.74825865</t>
+        </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
@@ -1765,29 +2028,41 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>3213958769587525888</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>75.61785590280779</v>
+        <v>79.80577003837008</v>
       </c>
       <c r="C23" t="n">
-        <v>-21.25784077680808</v>
+        <v>-3.073222913358394</v>
       </c>
       <c r="D23" t="n">
-        <v>7.750740051269531</v>
+        <v>7.478399753570557</v>
       </c>
       <c r="E23" t="n">
-        <v>8.57557487487793</v>
+        <v>8.042928695678711</v>
       </c>
       <c r="F23" t="n">
-        <v>6.656546115875244</v>
+        <v>6.742774486541748</v>
       </c>
       <c r="G23" t="n">
-        <v>119.3398737310191</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4063.596435546875</v>
+        <v>63.65137588808516</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>4587.147</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.22333561</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0.74825865</t>
+        </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1796,276 +2071,1189 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>3213958769587525888</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2974726136265625088</t>
+          <t>3213958769589070848</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>5426587107149861120</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>196.5638957330539</v>
+        <v>142.6740032632142</v>
       </c>
       <c r="C24" t="n">
-        <v>20.72965678223564</v>
+        <v>-40.466567086598</v>
       </c>
       <c r="D24" t="n">
-        <v>8.969438552856445</v>
+        <v>4.803853511810303</v>
       </c>
       <c r="E24" t="n">
-        <v>9.729983329772949</v>
+        <v>3.975138902664185</v>
       </c>
       <c r="F24" t="n">
-        <v>8.007077217102051</v>
+        <v>3.240525007247925</v>
       </c>
       <c r="G24" t="n">
-        <v>50.90347875548716</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4122.9033203125</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.6415486335754395</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.10798329859972</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.6824297308921814</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>K</t>
+        <v>54.30532208415497</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>5095.6333</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>5426587107149861120</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>3943232534137347072</t>
+          <t>5426587107145955712</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>5426587107149861120</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>196.5638957330539</v>
+        <v>142.6740032632142</v>
       </c>
       <c r="C25" t="n">
-        <v>20.72965678223564</v>
+        <v>-40.466567086598</v>
       </c>
       <c r="D25" t="n">
-        <v>8.969438552856445</v>
+        <v>4.803853511810303</v>
       </c>
       <c r="E25" t="n">
-        <v>9.729983329772949</v>
+        <v>3.975138902664185</v>
       </c>
       <c r="F25" t="n">
-        <v>8.007077217102051</v>
+        <v>3.240525007247925</v>
       </c>
       <c r="G25" t="n">
-        <v>50.90347875548716</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4122.9033203125</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.6415486335754395</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.10798329859972</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.6824297308921814</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>K</t>
+        <v>54.30532208415497</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>5095.6333</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>5426587107149861120</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>3943232534138172672</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>196.563887451697</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>20.72966994150692</v>
-      </c>
-      <c r="R25" t="n">
-        <v>8.973732948303223</v>
-      </c>
-      <c r="S25" t="n">
-        <v>9.684998512268066</v>
-      </c>
-      <c r="T25" t="n">
-        <v>8.016292572021484</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.668705940246582</v>
-      </c>
-      <c r="V25" t="n">
-        <v>50.80727454464759</v>
-      </c>
-      <c r="W25" t="n">
-        <v>4006.371826171875</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.6415486335754395</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0.10798329859972</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.6824297308921814</v>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>K</t>
+          <t>5426587107149861120</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4590758227640885248</t>
+          <t>2595463996992115840</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>271.7561269586085</v>
+        <v>336.6440634509766</v>
       </c>
       <c r="C26" t="n">
-        <v>30.56233941836619</v>
+        <v>-16.74185644464832</v>
       </c>
       <c r="D26" t="n">
-        <v>4.892927646636963</v>
+        <v>6.198555946350098</v>
       </c>
       <c r="E26" t="n">
-        <v>5.211727142333984</v>
+        <v>6.208871841430664</v>
       </c>
       <c r="F26" t="n">
-        <v>4.491597652435303</v>
+        <v>5.265100002288818</v>
       </c>
       <c r="G26" t="n">
-        <v>63.53576695184549</v>
-      </c>
-      <c r="H26" t="n">
-        <v>6009</v>
+        <v>51.50789426625737</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>5143.45</t>
+        </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>4590758227640885248</t>
+          <t>2595463996992115840</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>4590758227637479040</t>
+          <t>2595463992699783424</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>2595463996992115840</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>336.6440634509766</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-16.74185644464832</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.198555946350098</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.208871841430664</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.265100002288818</v>
+      </c>
+      <c r="G27" t="n">
+        <v>51.50789426625737</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>5143.45</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2595463996992115840</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2595463996992115840</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1462061709995883136</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>200.8842654175768</v>
+      </c>
+      <c r="C28" t="n">
+        <v>29.23855213046302</v>
+      </c>
+      <c r="D28" t="n">
+        <v>8.831394195556641</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9.585915565490723</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7.818288326263428</v>
+      </c>
+      <c r="G28" t="n">
+        <v>55.12479618884052</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>3905.417</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.6421308</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0.10700539</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0.71435326</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1462061709995883136</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>1462061709995883136</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1462061709995883136</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>200.8841905787304</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>29.2385865148712</v>
+      </c>
+      <c r="R28" t="n">
+        <v>8.844668388366699</v>
+      </c>
+      <c r="S28" t="n">
+        <v>9.575559616088867</v>
+      </c>
+      <c r="T28" t="n">
+        <v>7.798164844512939</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.777394771575928</v>
+      </c>
+      <c r="V28" t="n">
+        <v>55.20998508388942</v>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>3905.417</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>0.6421308</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>0.10700539</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>0.71435326</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1462061709995883136</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>200.8842654175768</v>
+      </c>
+      <c r="C29" t="n">
+        <v>29.23855213046302</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8.831394195556641</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9.585915565490723</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7.818288326263428</v>
+      </c>
+      <c r="G29" t="n">
+        <v>55.12479618884052</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>3905.417</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.6421308</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0.10700539</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.71435326</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1462061709995883136</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>1462061709996744448</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2974726131970829952</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>75.61785590280779</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-21.25784077680808</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.750740051269531</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8.57557487487793</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6.656546115875244</v>
+      </c>
+      <c r="G30" t="n">
+        <v>119.3398737310191</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>4063.5964</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0.06656814</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0.52055275</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2974726131970829952</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2974726131970829952</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>2974726131970829952</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>75.6178310374648</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-21.25787832693494</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7.792407512664795</v>
+      </c>
+      <c r="S30" t="n">
+        <v>8.551479339599609</v>
+      </c>
+      <c r="T30" t="n">
+        <v>6.645774841308594</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.905704498291016</v>
+      </c>
+      <c r="V30" t="n">
+        <v>119.5737439372057</v>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2974726131970829952</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>75.61785590280779</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-21.25784077680808</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7.750740051269531</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8.57557487487793</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6.656546115875244</v>
+      </c>
+      <c r="G31" t="n">
+        <v>119.3398737310191</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>4063.5964</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0.06656814</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0.52055275</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2974726131970829952</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2974726136265625088</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>217.3934657426036</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-62.67618210292382</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8.953612327575684</v>
+      </c>
+      <c r="E32" t="n">
+        <v>11.38292598724365</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7.586430072784424</v>
+      </c>
+      <c r="G32" t="n">
+        <v>768.5003653333918</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>3295.5</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>5853498713190523520</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>217.3934657426036</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-62.67618210292382</v>
+      </c>
+      <c r="D33" t="n">
+        <v>8.953612327575684</v>
+      </c>
+      <c r="E33" t="n">
+        <v>11.38292598724365</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7.586430072784424</v>
+      </c>
+      <c r="G33" t="n">
+        <v>768.5003653333918</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>3295.5</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>5853498713190524032</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>217.3934657426036</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-62.67618210292382</v>
+      </c>
+      <c r="D34" t="n">
+        <v>8.953612327575684</v>
+      </c>
+      <c r="E34" t="n">
+        <v>11.38292598724365</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7.586430072784424</v>
+      </c>
+      <c r="G34" t="n">
+        <v>768.5003653333918</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>3295.5</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>5853498713190525696</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>5853498713190525696</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>217.3923214720088</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-62.67607511676666</v>
+      </c>
+      <c r="R34" t="n">
+        <v>8.984748840332031</v>
+      </c>
+      <c r="S34" t="n">
+        <v>11.37311553955078</v>
+      </c>
+      <c r="T34" t="n">
+        <v>7.568535327911377</v>
+      </c>
+      <c r="U34" t="n">
+        <v>3.804580211639404</v>
+      </c>
+      <c r="V34" t="n">
+        <v>768.0665391873573</v>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>2829.3542</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>0.0015221541</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>0.16237111</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1552921051659352960</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>199.941227089661</v>
+      </c>
+      <c r="C35" t="n">
+        <v>47.77792679548974</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7.948930263519287</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8.774880409240723</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6.670772075653076</v>
+      </c>
+      <c r="G35" t="n">
+        <v>109.9837414044669</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>4051.515</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0.06580374</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0.52064663</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>1552921051659352960</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1552921051659352960</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1552921051659352960</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>199.941227089661</v>
+      </c>
+      <c r="C36" t="n">
+        <v>47.77792679548974</v>
+      </c>
+      <c r="D36" t="n">
+        <v>7.948930263519287</v>
+      </c>
+      <c r="E36" t="n">
+        <v>8.774880409240723</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6.670772075653076</v>
+      </c>
+      <c r="G36" t="n">
+        <v>109.9837414044669</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>4051.515</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0.06580374</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0.52064663</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>1552921051659352960</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>1552921055949679616</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>196.5638957330539</v>
+      </c>
+      <c r="C37" t="n">
+        <v>20.72965678223564</v>
+      </c>
+      <c r="D37" t="n">
+        <v>8.969438552856445</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9.729983329772949</v>
+      </c>
+      <c r="F37" t="n">
+        <v>8.007077217102051</v>
+      </c>
+      <c r="G37" t="n">
+        <v>50.90347875548716</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>4006.3718</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0.64154863</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0.1079833</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0.68242973</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>3943232534137347072</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>196.5638957330539</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20.72965678223564</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8.969438552856445</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9.729983329772949</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8.007077217102051</v>
+      </c>
+      <c r="G38" t="n">
+        <v>50.90347875548716</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>4006.3718</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.64154863</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0.1079833</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0.68242973</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>196.563887451697</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>20.72966994150692</v>
+      </c>
+      <c r="R38" t="n">
+        <v>8.973732948303223</v>
+      </c>
+      <c r="S38" t="n">
+        <v>9.684998512268066</v>
+      </c>
+      <c r="T38" t="n">
+        <v>8.016292572021484</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.668705940246582</v>
+      </c>
+      <c r="V38" t="n">
+        <v>50.80727454464759</v>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>4006.3718</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>0.64154863</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>0.1079833</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>0.68242973</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4590758227637479040</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>271.7558821637892</v>
+      </c>
+      <c r="C39" t="n">
+        <v>30.56263953176465</v>
+      </c>
+      <c r="D39" t="n">
+        <v>8.130936622619629</v>
+      </c>
+      <c r="G39" t="n">
+        <v>53.97691200055367</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>4590758227637479040</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>4590758227637479040</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>4590758227640885248</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B40" t="n">
         <v>271.7561269586085</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C40" t="n">
         <v>30.56233941836619</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D40" t="n">
         <v>4.892927646636963</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E40" t="n">
         <v>5.211727142333984</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F40" t="n">
         <v>4.491597652435303</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G40" t="n">
         <v>63.53576695184549</v>
       </c>
-      <c r="H27" t="n">
-        <v>6009</v>
-      </c>
-      <c r="M27" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>6009.0</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2.0126045</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1.3089633</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>4590758227640885248</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>4590758227637479040</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4590758227637479040</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>271.7558821637892</v>
+      </c>
+      <c r="C41" t="n">
+        <v>30.56263953176465</v>
+      </c>
+      <c r="D41" t="n">
+        <v>8.130936622619629</v>
+      </c>
+      <c r="G41" t="n">
+        <v>53.97691200055367</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>4590758227637479040</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>4590758227641991424</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>4590758227641991424</t>
         </is>
       </c>
-      <c r="P27" t="n">
+      <c r="P41" t="n">
         <v>271.7561108311563</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q41" t="n">
         <v>30.56234690690805</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R41" t="n">
         <v>4.947728157043457</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S41" t="n">
         <v>5.195022583007812</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T41" t="n">
         <v>4.432231903076172</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U41" t="n">
         <v>0.7627906799316406</v>
       </c>
-      <c r="V27" t="n">
+      <c r="V41" t="n">
         <v>63.39426362278724</v>
       </c>
-      <c r="W27" t="n">
-        <v>5925.45263671875</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1.053006649017334</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>2.019006729125977</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1.348439812660217</v>
-      </c>
-      <c r="AA27" t="inlineStr">
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>5925.4526</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>1.1061759</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>1.9763713</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>1.2861621</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4590758227640885248</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>271.7561269586085</v>
+      </c>
+      <c r="C42" t="n">
+        <v>30.56233941836619</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.892927646636963</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5.211727142333984</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.491597652435303</v>
+      </c>
+      <c r="G42" t="n">
+        <v>63.53576695184549</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>6009.0</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2.0126045</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1.3089633</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>4590758227640885248</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>4590758227641991424</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>4590758227641991424</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>271.7561108311563</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>30.56234690690805</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4.947728157043457</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5.195022583007812</v>
+      </c>
+      <c r="T42" t="n">
+        <v>4.432231903076172</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.7627906799316406</v>
+      </c>
+      <c r="V42" t="n">
+        <v>63.39426362278724</v>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>5925.4526</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>1.1061759</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>1.9763713</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>1.2861621</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
         <is>
           <t>F</t>
         </is>

--- a/results/repeated_entries.xlsx
+++ b/results/repeated_entries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AA127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,40 +602,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5443030196164951168</t>
+          <t>6725832095922016256</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160.2899119129692</v>
+        <v>273.3347176998794</v>
       </c>
       <c r="C2" t="n">
-        <v>-36.89640412005505</v>
+        <v>-39.84393199705262</v>
       </c>
       <c r="D2" t="n">
-        <v>9.25908374786377</v>
+        <v>11.7391471862793</v>
       </c>
       <c r="E2" t="n">
-        <v>10.21074485778809</v>
+        <v>13.12708282470703</v>
       </c>
       <c r="F2" t="n">
-        <v>8.162381172180176</v>
+        <v>10.59965991973877</v>
       </c>
       <c r="G2" t="n">
-        <v>63.97614315446016</v>
+        <v>53.01351949009779</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3795.6047</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.06885558</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.6068205</t>
+          <t>3805.4465</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -645,83 +635,42 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>5443030196164951168</t>
+          <t>6725832095922016256</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>5443030196164951168</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>5443030196164951168</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>160.2899488290704</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-36.89643444623196</v>
-      </c>
-      <c r="R2" t="n">
-        <v>9.272427558898926</v>
-      </c>
-      <c r="S2" t="n">
-        <v>10.1889762878418</v>
-      </c>
-      <c r="T2" t="n">
-        <v>8.150177001953125</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.038799285888672</v>
-      </c>
-      <c r="V2" t="n">
-        <v>64.33634726366664</v>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>M</t>
+          <t>6725829145307027840</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5443030196164951168</t>
+          <t>6725832095922016256</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.2899119129692</v>
+        <v>273.3347176998794</v>
       </c>
       <c r="C3" t="n">
-        <v>-36.89640412005505</v>
+        <v>-39.84393199705262</v>
       </c>
       <c r="D3" t="n">
-        <v>9.25908374786377</v>
+        <v>11.7391471862793</v>
       </c>
       <c r="E3" t="n">
-        <v>10.21074485778809</v>
+        <v>13.12708282470703</v>
       </c>
       <c r="F3" t="n">
-        <v>8.162381172180176</v>
+        <v>10.59965991973877</v>
       </c>
       <c r="G3" t="n">
-        <v>63.97614315446016</v>
+        <v>53.01351949009779</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3795.6047</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.06885558</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.6068205</t>
+          <t>3805.4465</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -731,118 +680,149 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5443030196164951168</t>
+          <t>6725832095922016256</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>5443030200460964480</t>
+          <t>6725832095922016256</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>6725832095922016256</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>273.3347119890693</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-39.84395218207264</v>
+      </c>
+      <c r="R3" t="n">
+        <v>11.73286819458008</v>
+      </c>
+      <c r="S3" t="n">
+        <v>13.10271739959717</v>
+      </c>
+      <c r="T3" t="n">
+        <v>10.57590866088867</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.526808738708496</v>
+      </c>
+      <c r="V3" t="n">
+        <v>53.19924075961032</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6792436799475128960</t>
+          <t>2962658549471532672</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.4642932425458</v>
+        <v>76.70643131144465</v>
       </c>
       <c r="C4" t="n">
-        <v>-32.43697891884239</v>
+        <v>-21.58462820524855</v>
       </c>
       <c r="D4" t="n">
-        <v>9.555359840393066</v>
+        <v>10.91122913360596</v>
       </c>
       <c r="E4" t="n">
-        <v>11.24395275115967</v>
+        <v>11.46880340576172</v>
       </c>
       <c r="F4" t="n">
-        <v>8.18243408203125</v>
+        <v>8.725362777709961</v>
       </c>
       <c r="G4" t="n">
-        <v>101.1982497400386</v>
+        <v>53.33001646247414</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4267.03</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>M</t>
+          <t>4425.0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6792436799475128960</t>
+          <t>2962658549471532672</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>6792436799475128960</t>
+          <t>2962658549471532672</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>6792436799475128960</t>
+          <t>2962658549471532672</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>310.464334034236</v>
+        <v>76.70644211936715</v>
       </c>
       <c r="Q4" t="n">
-        <v>-32.43703678438145</v>
+        <v>-21.58463036682455</v>
       </c>
       <c r="R4" t="n">
-        <v>9.575837135314941</v>
+        <v>11.04598331451416</v>
       </c>
       <c r="S4" t="n">
-        <v>11.21596717834473</v>
+        <v>11.45399379730225</v>
       </c>
       <c r="T4" t="n">
-        <v>8.184989929199219</v>
+        <v>8.757877349853516</v>
       </c>
       <c r="U4" t="n">
-        <v>3.030977249145508</v>
+        <v>2.69611644744873</v>
       </c>
       <c r="V4" t="n">
-        <v>100.7921067774221</v>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
+        <v>50.58113677361457</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6792436799475128960</t>
+          <t>2962658549474035712</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310.4642932425458</v>
+        <v>76.70617422420692</v>
       </c>
       <c r="C5" t="n">
-        <v>-32.43697891884239</v>
+        <v>-21.58451970252926</v>
       </c>
       <c r="D5" t="n">
-        <v>9.555359840393066</v>
+        <v>10.28313255310059</v>
       </c>
       <c r="E5" t="n">
-        <v>11.24395275115967</v>
+        <v>11.44809150695801</v>
       </c>
       <c r="F5" t="n">
-        <v>8.18243408203125</v>
+        <v>8.72900390625</v>
       </c>
       <c r="G5" t="n">
-        <v>101.1982497400386</v>
+        <v>50.64880761323369</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4267.03</t>
+          <t>3493.5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.0532422</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.6298819</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -852,620 +832,577 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6792436799475128960</t>
+          <t>2962658549474035712</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>6792436803774310144</t>
-        </is>
+          <t>2962658549471532672</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2962658549471532672</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>76.70644211936715</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-21.58463036682455</v>
+      </c>
+      <c r="R5" t="n">
+        <v>11.04598331451416</v>
+      </c>
+      <c r="S5" t="n">
+        <v>11.45399379730225</v>
+      </c>
+      <c r="T5" t="n">
+        <v>8.757877349853516</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.69611644744873</v>
+      </c>
+      <c r="V5" t="n">
+        <v>50.58113677361457</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6508776375900830592</t>
+          <t>2962658549471532672</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>334.5689175424271</v>
+        <v>76.70643131144465</v>
       </c>
       <c r="C6" t="n">
-        <v>-53.62944421386503</v>
+        <v>-21.58462820524855</v>
       </c>
       <c r="D6" t="n">
-        <v>9.186453819274902</v>
+        <v>10.91122913360596</v>
       </c>
       <c r="E6" t="n">
-        <v>9.083861351013184</v>
+        <v>11.46880340576172</v>
       </c>
       <c r="F6" t="n">
-        <v>7.604742050170898</v>
+        <v>8.725362777709961</v>
       </c>
       <c r="G6" t="n">
-        <v>72.96099165096082</v>
+        <v>53.33001646247414</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5095.6333</t>
+          <t>4425.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6508776375900830592</t>
+          <t>2962658549471532672</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>6508776375900830592</t>
+          <t>2962658549474035712</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2962658549474035712</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>76.70617658945091</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-21.58452832997181</v>
+      </c>
+      <c r="R6" t="n">
+        <v>10.32899570465088</v>
+      </c>
+      <c r="S6" t="n">
+        <v>11.43883037567139</v>
+      </c>
+      <c r="T6" t="n">
+        <v>8.714428901672363</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.724401473999023</v>
+      </c>
+      <c r="V6" t="n">
+        <v>50.52342078142602</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6508776375901968640</t>
+          <t>2962658549474035712</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>334.5682592612844</v>
+        <v>76.70617422420692</v>
       </c>
       <c r="C7" t="n">
-        <v>-53.62978547970057</v>
+        <v>-21.58451970252926</v>
       </c>
       <c r="D7" t="n">
-        <v>5.210835456848145</v>
+        <v>10.28313255310059</v>
       </c>
       <c r="E7" t="n">
-        <v>5.558455944061279</v>
+        <v>11.44809150695801</v>
       </c>
       <c r="F7" t="n">
-        <v>4.759548187255859</v>
+        <v>8.72900390625</v>
       </c>
       <c r="G7" t="n">
-        <v>71.34293388599237</v>
+        <v>50.64880761323369</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5780.66</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.9820968</t>
+          <t>3493.5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.1821582</t>
+          <t>0.0532422</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.0838945</t>
+          <t>0.6298819</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>6508776375901968640</t>
+          <t>2962658549474035712</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>6508776375900830592</t>
+          <t>2962658549474035712</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2962658549474035712</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>76.70617658945091</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-21.58452832997181</v>
+      </c>
+      <c r="R7" t="n">
+        <v>10.32899570465088</v>
+      </c>
+      <c r="S7" t="n">
+        <v>11.43883037567139</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8.714428901672363</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.724401473999023</v>
+      </c>
+      <c r="V7" t="n">
+        <v>50.52342078142602</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6508776375900830592</t>
+          <t>5707502295002824704</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>334.5689175424271</v>
+        <v>124.4137813189076</v>
       </c>
       <c r="C8" t="n">
-        <v>-53.62944421386503</v>
+        <v>-19.55895706828489</v>
       </c>
       <c r="D8" t="n">
-        <v>9.186453819274902</v>
+        <v>11.74903583526611</v>
       </c>
       <c r="E8" t="n">
-        <v>9.083861351013184</v>
+        <v>12.22572135925293</v>
       </c>
       <c r="F8" t="n">
-        <v>7.604742050170898</v>
+        <v>11.126784324646</v>
       </c>
       <c r="G8" t="n">
-        <v>72.96099165096082</v>
+        <v>69.09954759503835</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5095.6333</t>
+          <t>5011.5</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>6508776375900830592</t>
+          <t>5707502295002824704</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6508776375901968640</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>6508776375901968640</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>334.5683625481559</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>-53.62987304773594</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5.230531692504883</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5.541717052459717</v>
-      </c>
-      <c r="T8" t="n">
-        <v>4.735962390899658</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.8057546615600586</v>
-      </c>
-      <c r="V8" t="n">
-        <v>71.09384614454987</v>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>5780.66</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0.9820968</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>1.1821582</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>1.0838945</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>G</t>
+          <t>5707502294998203904</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6508776375901968640</t>
+          <t>5707502295002824704</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>334.5682592612844</v>
+        <v>124.4137813189076</v>
       </c>
       <c r="C9" t="n">
-        <v>-53.62978547970057</v>
+        <v>-19.55895706828489</v>
       </c>
       <c r="D9" t="n">
-        <v>5.210835456848145</v>
+        <v>11.74903583526611</v>
       </c>
       <c r="E9" t="n">
-        <v>5.558455944061279</v>
+        <v>12.22572135925293</v>
       </c>
       <c r="F9" t="n">
-        <v>4.759548187255859</v>
+        <v>11.126784324646</v>
       </c>
       <c r="G9" t="n">
-        <v>71.34293388599237</v>
+        <v>69.09954759503835</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5780.66</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.9820968</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1.1821582</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>1.0838945</t>
+          <t>5011.5</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6508776375901968640</t>
+          <t>5707502295002824704</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6508776375901968640</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>6508776375901968640</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>334.5683625481559</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-53.62987304773594</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5.230531692504883</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5.541717052459717</v>
-      </c>
-      <c r="T9" t="n">
-        <v>4.735962390899658</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.8057546615600586</v>
-      </c>
-      <c r="V9" t="n">
-        <v>71.09384614454987</v>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>5780.66</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0.9820968</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>1.1821582</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>1.0838945</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>G</t>
+          <t>5707502295002824704</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6508776375900830592</t>
+          <t>5443030196164951168</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>334.5689175424271</v>
+        <v>160.2899119129692</v>
       </c>
       <c r="C10" t="n">
-        <v>-53.62944421386503</v>
+        <v>-36.89640412005505</v>
       </c>
       <c r="D10" t="n">
-        <v>9.186453819274902</v>
+        <v>9.25908374786377</v>
       </c>
       <c r="E10" t="n">
-        <v>9.083861351013184</v>
+        <v>10.21074485778809</v>
       </c>
       <c r="F10" t="n">
-        <v>7.604742050170898</v>
+        <v>8.162381172180176</v>
       </c>
       <c r="G10" t="n">
-        <v>72.96099165096082</v>
+        <v>63.97614315446016</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>5095.6333</t>
+          <t>3795.6047</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.06885558</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.6068205</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6508776375900830592</t>
+          <t>5443030196164951168</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>6508776375902338944</t>
+          <t>5443030196164951168</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>5443030196164951168</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>160.2899488290704</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-36.89643444623196</v>
+      </c>
+      <c r="R10" t="n">
+        <v>9.272427558898926</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10.1889762878418</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8.150177001953125</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.038799285888672</v>
+      </c>
+      <c r="V10" t="n">
+        <v>64.33634726366664</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6508776375901968640</t>
+          <t>5443030196164951168</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>334.5682592612844</v>
+        <v>160.2899119129692</v>
       </c>
       <c r="C11" t="n">
-        <v>-53.62978547970057</v>
+        <v>-36.89640412005505</v>
       </c>
       <c r="D11" t="n">
-        <v>5.210835456848145</v>
+        <v>9.25908374786377</v>
       </c>
       <c r="E11" t="n">
-        <v>5.558455944061279</v>
+        <v>10.21074485778809</v>
       </c>
       <c r="F11" t="n">
-        <v>4.759548187255859</v>
+        <v>8.162381172180176</v>
       </c>
       <c r="G11" t="n">
-        <v>71.34293388599237</v>
+        <v>63.97614315446016</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5780.66</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.9820968</t>
+          <t>3795.6047</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.1821582</t>
+          <t>0.06885558</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1.0838945</t>
+          <t>0.6068205</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6508776375901968640</t>
+          <t>5443030196164951168</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>6508776375902338944</t>
+          <t>5443030200460964480</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
+          <t>6792436799475128960</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80.65646942221296</v>
+        <v>310.4642932425458</v>
       </c>
       <c r="C12" t="n">
-        <v>2.602451244119687</v>
+        <v>-32.43697891884239</v>
       </c>
       <c r="D12" t="n">
-        <v>7.53508996963501</v>
+        <v>9.555359840393066</v>
       </c>
       <c r="E12" t="n">
-        <v>8.008501052856445</v>
+        <v>11.24395275115967</v>
       </c>
       <c r="F12" t="n">
-        <v>6.799147129058838</v>
+        <v>8.18243408203125</v>
       </c>
       <c r="G12" t="n">
-        <v>50.39430355852318</v>
+        <v>101.1982497400386</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4837.0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.803856</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0.287645</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0.6787785</t>
+          <t>4267.03</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
+          <t>6792436799475128960</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3234412602147418496</t>
+          <t>6792436799475128960</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>6792436799475128960</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>310.464334034236</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-32.43703678438145</v>
+      </c>
+      <c r="R12" t="n">
+        <v>9.575837135314941</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11.21596717834473</v>
+      </c>
+      <c r="T12" t="n">
+        <v>8.184989929199219</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3.030977249145508</v>
+      </c>
+      <c r="V12" t="n">
+        <v>100.7921067774221</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
+          <t>6792436799475128960</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.65646942221296</v>
+        <v>310.4642932425458</v>
       </c>
       <c r="C13" t="n">
-        <v>2.602451244119687</v>
+        <v>-32.43697891884239</v>
       </c>
       <c r="D13" t="n">
-        <v>7.53508996963501</v>
+        <v>9.555359840393066</v>
       </c>
       <c r="E13" t="n">
-        <v>8.008501052856445</v>
+        <v>11.24395275115967</v>
       </c>
       <c r="F13" t="n">
-        <v>6.799147129058838</v>
+        <v>8.18243408203125</v>
       </c>
       <c r="G13" t="n">
-        <v>50.39430355852318</v>
+        <v>101.1982497400386</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4837.0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.803856</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0.287645</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0.6787785</t>
+          <t>4267.03</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
+          <t>6792436799475128960</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>3234412606443085824</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>3234412606443085824</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>80.65647842134706</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.602426364625909</v>
-      </c>
-      <c r="R13" t="n">
-        <v>7.574897766113281</v>
-      </c>
-      <c r="S13" t="n">
-        <v>7.974358558654785</v>
-      </c>
-      <c r="T13" t="n">
-        <v>6.771440029144287</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.202918529510498</v>
-      </c>
-      <c r="V13" t="n">
-        <v>50.51711071904607</v>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0.803856</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0.287645</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0.6787785</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>K</t>
+          <t>6792436803774310144</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5955305209191546112</t>
+          <t>1266092694561970432</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>264.2610245058087</v>
+        <v>223.4609059782229</v>
       </c>
       <c r="C14" t="n">
-        <v>-44.32325190884921</v>
+        <v>23.5562283672217</v>
       </c>
       <c r="D14" t="n">
-        <v>9.570246696472168</v>
+        <v>10.6834602355957</v>
       </c>
       <c r="E14" t="n">
-        <v>11.22336196899414</v>
+        <v>11.97817039489746</v>
       </c>
       <c r="F14" t="n">
-        <v>8.336091995239258</v>
+        <v>9.218082427978516</v>
       </c>
       <c r="G14" t="n">
-        <v>199.7031040708767</v>
+        <v>87.93503399810947</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3155.8037</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0.0082382895</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0.30361992</t>
+          <t>3692.9502</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1475,52 +1412,73 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>5955305209191546112</t>
+          <t>1266092694561970432</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>5955305209177869952</t>
+          <t>1266092694561970432</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1266092694561970432</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>223.4608011207818</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>23.5562410319204</v>
+      </c>
+      <c r="R14" t="n">
+        <v>10.72775745391846</v>
+      </c>
+      <c r="S14" t="n">
+        <v>11.95340347290039</v>
+      </c>
+      <c r="T14" t="n">
+        <v>9.178810119628906</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.774593353271484</v>
+      </c>
+      <c r="V14" t="n">
+        <v>87.50119907203403</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5955305209191546112</t>
+          <t>1266092694561970432</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>264.2610245058087</v>
+        <v>223.4609059782229</v>
       </c>
       <c r="C15" t="n">
-        <v>-44.32325190884921</v>
+        <v>23.5562283672217</v>
       </c>
       <c r="D15" t="n">
-        <v>9.570246696472168</v>
+        <v>10.6834602355957</v>
       </c>
       <c r="E15" t="n">
-        <v>11.22336196899414</v>
+        <v>11.97817039489746</v>
       </c>
       <c r="F15" t="n">
-        <v>8.336091995239258</v>
+        <v>9.218082427978516</v>
       </c>
       <c r="G15" t="n">
-        <v>199.7031040708767</v>
+        <v>87.93503399810947</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3155.8037</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0.0082382895</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0.30361992</t>
+          <t>3692.9502</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1530,737 +1488,651 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>5955305209191546112</t>
+          <t>1266092694561970432</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>5955305209191546112</t>
+          <t>1266092694562422912</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>5955305209191546112</t>
+          <t>1266092694562422912</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>264.2608873897323</v>
+        <v>223.4610677954632</v>
       </c>
       <c r="Q15" t="n">
-        <v>-44.32338224303842</v>
+        <v>23.55624459918502</v>
       </c>
       <c r="R15" t="n">
-        <v>9.602152824401855</v>
+        <v>11.75485038757324</v>
       </c>
       <c r="S15" t="n">
-        <v>11.24523448944092</v>
+        <v>11.95096206665039</v>
       </c>
       <c r="T15" t="n">
-        <v>8.340335845947266</v>
+        <v>9.258833885192871</v>
       </c>
       <c r="U15" t="n">
-        <v>2.904898643493652</v>
+        <v>2.69212818145752</v>
       </c>
       <c r="V15" t="n">
-        <v>199.6944012807481</v>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>3155.8037</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0.0082382895</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0.30361992</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
+        <v>86.27588304488538</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>6508776375900830592</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>286.6054157588619</v>
+        <v>334.5689175424271</v>
       </c>
       <c r="C16" t="n">
-        <v>-37.06488085942344</v>
+        <v>-53.62944421386503</v>
       </c>
       <c r="D16" t="n">
-        <v>4.717123985290527</v>
+        <v>9.186453819274902</v>
       </c>
       <c r="E16" t="n">
-        <v>4.816995620727539</v>
+        <v>9.083861351013184</v>
       </c>
       <c r="F16" t="n">
-        <v>4.114394664764404</v>
+        <v>7.604742050170898</v>
       </c>
       <c r="G16" t="n">
-        <v>57.85828017971518</v>
+        <v>72.96099165096082</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>6022.0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>2.852196</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>1.5515323</t>
+          <t>5095.6333</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>6508776375900830592</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>6508776375900830592</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>6508776375901968640</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>286.6053079615535</v>
+        <v>334.5682592612844</v>
       </c>
       <c r="C17" t="n">
-        <v>-37.06450354954132</v>
+        <v>-53.62978547970057</v>
       </c>
       <c r="D17" t="n">
-        <v>4.760257244110107</v>
+        <v>5.210835456848145</v>
       </c>
       <c r="E17" t="n">
-        <v>4.791435241699219</v>
+        <v>5.558455944061279</v>
       </c>
       <c r="F17" t="n">
-        <v>3.94169807434082</v>
+        <v>4.759548187255859</v>
       </c>
       <c r="G17" t="n">
-        <v>58.69555998807621</v>
+        <v>71.34293388599237</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5190.3335</t>
+          <t>5780.66</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.9820968</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1.1821582</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1.0838945</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>G</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>6508776375901968640</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>6508776375900830592</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>6508776375900830592</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>286.6054157588619</v>
+        <v>334.5689175424271</v>
       </c>
       <c r="C18" t="n">
-        <v>-37.06488085942344</v>
+        <v>-53.62944421386503</v>
       </c>
       <c r="D18" t="n">
-        <v>4.717123985290527</v>
+        <v>9.186453819274902</v>
       </c>
       <c r="E18" t="n">
-        <v>4.816995620727539</v>
+        <v>9.083861351013184</v>
       </c>
       <c r="F18" t="n">
-        <v>4.114394664764404</v>
+        <v>7.604742050170898</v>
       </c>
       <c r="G18" t="n">
-        <v>57.85828017971518</v>
+        <v>72.96099165096082</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>6022.0</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>2.852196</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>1.5515323</t>
+          <t>5095.6333</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>6719152945029845376</t>
+          <t>6508776375900830592</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>6508776375901968640</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>6508776375901968640</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>334.5683625481559</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-53.62987304773594</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5.230531692504883</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5.541717052459717</v>
+      </c>
+      <c r="T18" t="n">
+        <v>4.735962390899658</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.8057546615600586</v>
+      </c>
+      <c r="V18" t="n">
+        <v>71.09384614454987</v>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>5780.66</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>0.9820968</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>1.1821582</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>1.0838945</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>6508776375901968640</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>286.6053079615535</v>
+        <v>334.5682592612844</v>
       </c>
       <c r="C19" t="n">
-        <v>-37.06450354954132</v>
+        <v>-53.62978547970057</v>
       </c>
       <c r="D19" t="n">
-        <v>4.760257244110107</v>
+        <v>5.210835456848145</v>
       </c>
       <c r="E19" t="n">
-        <v>4.791435241699219</v>
+        <v>5.558455944061279</v>
       </c>
       <c r="F19" t="n">
-        <v>3.94169807434082</v>
+        <v>4.759548187255859</v>
       </c>
       <c r="G19" t="n">
-        <v>58.69555998807621</v>
+        <v>71.34293388599237</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>5190.3335</t>
+          <t>5780.66</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.9820968</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1.1821582</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1.0838945</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>G</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>6508776375901968640</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>6719152945032456832</t>
+          <t>6508776375901968640</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>6508776375901968640</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>334.5683625481559</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-53.62987304773594</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5.230531692504883</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5.541717052459717</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4.735962390899658</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.8057546615600586</v>
+      </c>
+      <c r="V19" t="n">
+        <v>71.09384614454987</v>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>5780.66</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>0.9820968</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>1.1821582</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>1.0838945</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>596779044285545984</t>
+          <t>6508776375900830592</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>132.6760398348613</v>
+        <v>334.5689175424271</v>
       </c>
       <c r="C20" t="n">
-        <v>7.864122327596015</v>
+        <v>-53.62944421386503</v>
       </c>
       <c r="D20" t="n">
-        <v>9.30428409576416</v>
+        <v>9.186453819274902</v>
       </c>
       <c r="E20" t="n">
-        <v>9.669934272766113</v>
+        <v>9.083861351013184</v>
       </c>
       <c r="F20" t="n">
-        <v>7.656069755554199</v>
+        <v>7.604742050170898</v>
       </c>
       <c r="G20" t="n">
-        <v>56.11548072384026</v>
+        <v>72.96099165096082</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3968.184</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0.07416474</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0.6615956</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>unknown</t>
+          <t>5095.6333</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>596779044285545984</t>
+          <t>6508776375900830592</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>596779044285041792</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>596779044285041792</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>132.6760375730596</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>7.86445109385351</v>
-      </c>
-      <c r="R20" t="n">
-        <v>9.072543144226074</v>
-      </c>
-      <c r="S20" t="n">
-        <v>9.401226043701172</v>
-      </c>
-      <c r="T20" t="n">
-        <v>7.613240242004395</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.787985801696777</v>
-      </c>
-      <c r="V20" t="n">
-        <v>56.00725934401263</v>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>3689.1877</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>0.09200179</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>0.74259245</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>6508776375902338944</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>596779044285041792</t>
+          <t>6508776375901968640</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>132.676043587246</v>
+        <v>334.5682592612844</v>
       </c>
       <c r="C21" t="n">
-        <v>7.864454757536701</v>
+        <v>-53.62978547970057</v>
       </c>
       <c r="D21" t="n">
-        <v>9.069389343261719</v>
+        <v>5.210835456848145</v>
       </c>
       <c r="E21" t="n">
-        <v>9.312304496765137</v>
+        <v>5.558455944061279</v>
       </c>
       <c r="F21" t="n">
-        <v>7.628968715667725</v>
+        <v>4.759548187255859</v>
       </c>
       <c r="G21" t="n">
-        <v>56.18901160389031</v>
+        <v>71.34293388599237</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3689.1877</t>
+          <t>5780.66</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.9820968</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.09200179</t>
+          <t>1.1821582</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.74259245</t>
+          <t>1.0838945</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>G</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>596779044285041792</t>
+          <t>6508776375901968640</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>596779044285041792</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>596779044285041792</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>132.6760375730596</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>7.86445109385351</v>
-      </c>
-      <c r="R21" t="n">
-        <v>9.072543144226074</v>
-      </c>
-      <c r="S21" t="n">
-        <v>9.401226043701172</v>
-      </c>
-      <c r="T21" t="n">
-        <v>7.613240242004395</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.787985801696777</v>
-      </c>
-      <c r="V21" t="n">
-        <v>56.00725934401263</v>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>3689.1877</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>0.09200179</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>0.74259245</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>6508776375902338944</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>596779044285545984</t>
+          <t>3665076433275547904</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.6760398348613</v>
+        <v>207.2548048476725</v>
       </c>
       <c r="C22" t="n">
-        <v>7.864122327596015</v>
+        <v>2.789946080324413</v>
       </c>
       <c r="D22" t="n">
-        <v>9.30428409576416</v>
+        <v>10.82516193389893</v>
       </c>
       <c r="E22" t="n">
-        <v>9.669934272766113</v>
+        <v>11.44756698608398</v>
       </c>
       <c r="F22" t="n">
-        <v>7.656069755554199</v>
+        <v>9.216026306152344</v>
       </c>
       <c r="G22" t="n">
-        <v>56.11548072384026</v>
+        <v>55.7827330235782</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3968.184</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0.07416474</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0.6615956</t>
+          <t>4366.5</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>596779044285545984</t>
+          <t>3665076433275547904</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>596779044285545984</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>596779044285545984</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>132.6760249411678</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>7.864124459558615</v>
-      </c>
-      <c r="R22" t="n">
-        <v>9.315723419189453</v>
-      </c>
-      <c r="S22" t="n">
-        <v>9.586329460144043</v>
-      </c>
-      <c r="T22" t="n">
-        <v>7.633227348327637</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.953102111816406</v>
-      </c>
-      <c r="V22" t="n">
-        <v>56.31319919991991</v>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>3968.184</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>0.07416474</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>0.6615956</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>unknown</t>
+          <t>3665076433274962944</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>596779044285041792</t>
+          <t>3665076433275547904</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>132.676043587246</v>
+        <v>207.2548048476725</v>
       </c>
       <c r="C23" t="n">
-        <v>7.864454757536701</v>
+        <v>2.789946080324413</v>
       </c>
       <c r="D23" t="n">
-        <v>9.069389343261719</v>
+        <v>10.82516193389893</v>
       </c>
       <c r="E23" t="n">
-        <v>9.312304496765137</v>
+        <v>11.44756698608398</v>
       </c>
       <c r="F23" t="n">
-        <v>7.628968715667725</v>
+        <v>9.216026306152344</v>
       </c>
       <c r="G23" t="n">
-        <v>56.18901160389031</v>
+        <v>55.7827330235782</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3689.1877</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>0.09200179</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0.74259245</t>
+          <t>4366.5</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>596779044285041792</t>
+          <t>3665076433275547904</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>596779044285545984</t>
+          <t>3665076433275547904</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>596779044285545984</t>
+          <t>3665076433275547904</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>132.6760249411678</v>
+        <v>207.2548230865133</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.864124459558615</v>
+        <v>2.789899161594863</v>
       </c>
       <c r="R23" t="n">
-        <v>9.315723419189453</v>
+        <v>10.89292621612549</v>
       </c>
       <c r="S23" t="n">
-        <v>9.586329460144043</v>
+        <v>11.41617774963379</v>
       </c>
       <c r="T23" t="n">
-        <v>7.633227348327637</v>
+        <v>9.150069236755371</v>
       </c>
       <c r="U23" t="n">
-        <v>1.953102111816406</v>
+        <v>2.266108512878418</v>
       </c>
       <c r="V23" t="n">
-        <v>56.31319919991991</v>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>3968.184</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>0.07416474</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>0.6615956</t>
-        </is>
+        <v>54.93039476348942</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>3665076433275547904</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>130.6865172420918</v>
+        <v>207.2548048476725</v>
       </c>
       <c r="C24" t="n">
-        <v>9.5539723965289</v>
+        <v>2.789946080324413</v>
       </c>
       <c r="D24" t="n">
-        <v>8.946824073791504</v>
+        <v>10.82516193389893</v>
       </c>
       <c r="E24" t="n">
-        <v>9.887347221374512</v>
+        <v>11.44756698608398</v>
       </c>
       <c r="F24" t="n">
-        <v>7.971009254455566</v>
+        <v>9.216026306152344</v>
       </c>
       <c r="G24" t="n">
-        <v>64.3680016469628</v>
+        <v>55.7827330235782</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3873.0</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>0.3356494</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>1.2673832</t>
+          <t>4366.5</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>3665076433275547904</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>598180818531355776</t>
+          <t>3665076433275739648</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>3234412606443085824</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.6865172420918</v>
+        <v>80.65646942221296</v>
       </c>
       <c r="C25" t="n">
-        <v>9.5539723965289</v>
+        <v>2.602451244119687</v>
       </c>
       <c r="D25" t="n">
-        <v>8.946824073791504</v>
+        <v>7.53508996963501</v>
       </c>
       <c r="E25" t="n">
-        <v>9.887347221374512</v>
+        <v>8.008501052856445</v>
       </c>
       <c r="F25" t="n">
-        <v>7.971009254455566</v>
+        <v>6.799147129058838</v>
       </c>
       <c r="G25" t="n">
-        <v>64.3680016469628</v>
+        <v>50.39430355852318</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3873.0</t>
+          <t>4837.0</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.803856</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.3356494</t>
+          <t>0.287645</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.2673832</t>
+          <t>0.6787785</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2270,1229 +2142,1271 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
+          <t>3234412606443085824</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>598180818531935232</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>598180818531935232</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>130.6865487902776</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>9.553884675324547</v>
-      </c>
-      <c r="R25" t="n">
-        <v>8.95395565032959</v>
-      </c>
-      <c r="S25" t="n">
-        <v>9.869359970092773</v>
-      </c>
-      <c r="T25" t="n">
-        <v>7.95960807800293</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.909751892089844</v>
-      </c>
-      <c r="V25" t="n">
-        <v>64.68101125800112</v>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>0.3356494</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>1.2673832</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>K</t>
+          <t>3234412602147418496</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>3234412606443085824</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.1856175191175</v>
+        <v>80.65646942221296</v>
       </c>
       <c r="C26" t="n">
-        <v>-10.44820514671702</v>
+        <v>2.602451244119687</v>
       </c>
       <c r="D26" t="n">
-        <v>5.328901290893555</v>
+        <v>7.53508996963501</v>
       </c>
       <c r="E26" t="n">
-        <v>5.751168727874756</v>
+        <v>8.008501052856445</v>
       </c>
       <c r="F26" t="n">
-        <v>4.824667453765869</v>
+        <v>6.799147129058838</v>
       </c>
       <c r="G26" t="n">
-        <v>78.75648094040741</v>
+        <v>50.39430355852318</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>5510.1235</t>
+          <t>4837.0</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.8837685</t>
+          <t>0.803856</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.859334</t>
+          <t>0.287645</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1.0129887</t>
+          <t>0.6787785</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>3234412606443085824</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>3575733210778695808</t>
+          <t>3234412606443085824</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>3234412606443085824</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>80.65647842134706</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.602426364625909</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7.574897766113281</v>
+      </c>
+      <c r="S26" t="n">
+        <v>7.974358558654785</v>
+      </c>
+      <c r="T26" t="n">
+        <v>6.771440029144287</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.202918529510498</v>
+      </c>
+      <c r="V26" t="n">
+        <v>50.51711071904607</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>0.803856</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>0.287645</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>0.6787785</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>5955305209191546112</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>180.1856175191175</v>
+        <v>264.2610245058087</v>
       </c>
       <c r="C27" t="n">
-        <v>-10.44820514671702</v>
+        <v>-44.32325190884921</v>
       </c>
       <c r="D27" t="n">
-        <v>5.328901290893555</v>
+        <v>9.570246696472168</v>
       </c>
       <c r="E27" t="n">
-        <v>5.751168727874756</v>
+        <v>11.22336196899414</v>
       </c>
       <c r="F27" t="n">
-        <v>4.824667453765869</v>
+        <v>8.336091995239258</v>
       </c>
       <c r="G27" t="n">
-        <v>78.75648094040741</v>
+        <v>199.7031040708767</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>5510.1235</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.8837685</t>
+          <t>3155.8037</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.859334</t>
+          <t>0.0082382895</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1.0129887</t>
+          <t>0.30361992</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
+          <t>5955305209191546112</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>3575733210781078016</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>3575733210781078016</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>180.1856293061816</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>-10.44827200397585</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5.355077266693115</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5.731156826019287</v>
-      </c>
-      <c r="T27" t="n">
-        <v>4.805628299713135</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0.9255285263061523</v>
-      </c>
-      <c r="V27" t="n">
-        <v>78.33591471044681</v>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>5510.1235</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>0.8837685</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>0.859334</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>1.0129887</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>G</t>
+          <t>5955305209177869952</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3117120863523946368</t>
+          <t>5955305209191546112</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.35069832372695</v>
+        <v>264.2610245058087</v>
       </c>
       <c r="C28" t="n">
-        <v>-2.817013778345798</v>
+        <v>-44.32325190884921</v>
       </c>
       <c r="D28" t="n">
-        <v>9.580621719360352</v>
+        <v>9.570246696472168</v>
       </c>
       <c r="E28" t="n">
-        <v>11.37590312957764</v>
+        <v>11.22336196899414</v>
       </c>
       <c r="F28" t="n">
-        <v>8.275747299194336</v>
+        <v>8.336091995239258</v>
       </c>
       <c r="G28" t="n">
-        <v>242.9658901759567</v>
+        <v>199.7031040708767</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>4293.077</t>
+          <t>3155.8037</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0.0082382895</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0.30361992</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>3117120863523946368</t>
+          <t>5955305209191546112</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>3117120863519565568</t>
+          <t>5955305209191546112</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>5955305209191546112</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>264.2608873897323</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-44.32338224303842</v>
+      </c>
+      <c r="R28" t="n">
+        <v>9.602152824401855</v>
+      </c>
+      <c r="S28" t="n">
+        <v>11.24523448944092</v>
+      </c>
+      <c r="T28" t="n">
+        <v>8.340335845947266</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.904898643493652</v>
+      </c>
+      <c r="V28" t="n">
+        <v>199.6944012807481</v>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>3155.8037</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>0.0082382895</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>0.30361992</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3117120863523946368</t>
+          <t>2805045756653326080</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>97.35069832372695</v>
+        <v>12.63951087305109</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.817013778345798</v>
+        <v>24.81657960965835</v>
       </c>
       <c r="D29" t="n">
-        <v>9.580621719360352</v>
+        <v>11.21674060821533</v>
       </c>
       <c r="E29" t="n">
-        <v>11.37590312957764</v>
+        <v>12.44557857513428</v>
       </c>
       <c r="F29" t="n">
-        <v>8.275747299194336</v>
+        <v>9.676067352294922</v>
       </c>
       <c r="G29" t="n">
-        <v>242.9658901759567</v>
+        <v>66.80842144530081</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>4293.077</t>
+          <t>3709.0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>3117120863523946368</t>
+          <t>2805045756653326080</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3117120863523946368</t>
+          <t>2805045756652783104</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6371169987425471232</t>
+          <t>2805045756653326080</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>327.2788630438553</v>
+        <v>12.63951087305109</v>
       </c>
       <c r="C30" t="n">
-        <v>-72.10361561215949</v>
+        <v>24.81657960965835</v>
       </c>
       <c r="D30" t="n">
-        <v>9.054858207702637</v>
+        <v>11.21674060821533</v>
       </c>
       <c r="E30" t="n">
-        <v>9.877593994140625</v>
+        <v>12.44557857513428</v>
       </c>
       <c r="F30" t="n">
-        <v>7.839743614196777</v>
+        <v>9.676067352294922</v>
       </c>
       <c r="G30" t="n">
-        <v>60.49050116267507</v>
+        <v>66.80842144530081</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>4012.71</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>0.08057142</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0.5873103</t>
+          <t>3709.0</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>6371169987425471232</t>
+          <t>2805045756653326080</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>6371169987423911168</t>
+          <t>2805045756653326080</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>2805045756653326080</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>12.6395419316077</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>24.81657513314053</v>
+      </c>
+      <c r="R30" t="n">
+        <v>11.24065399169922</v>
+      </c>
+      <c r="S30" t="n">
+        <v>12.44219017028809</v>
+      </c>
+      <c r="T30" t="n">
+        <v>9.66118049621582</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.781009674072266</v>
+      </c>
+      <c r="V30" t="n">
+        <v>66.72558131061351</v>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6371169987425471232</t>
+          <t>5736464668224470400</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>327.2788630438553</v>
+        <v>133.5236644709698</v>
       </c>
       <c r="C31" t="n">
-        <v>-72.10361561215949</v>
+        <v>-13.12767858833451</v>
       </c>
       <c r="D31" t="n">
-        <v>9.054858207702637</v>
+        <v>11.38905048370361</v>
       </c>
       <c r="E31" t="n">
-        <v>9.877593994140625</v>
+        <v>12.22602462768555</v>
       </c>
       <c r="F31" t="n">
-        <v>7.839743614196777</v>
+        <v>9.686737060546875</v>
       </c>
       <c r="G31" t="n">
-        <v>60.49050116267507</v>
+        <v>66.2603998138584</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>4012.71</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>0.08057142</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0.5873103</t>
+          <t>4044.5203</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>6371169987425471232</t>
+          <t>5736464668224470400</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>6371169987426204800</t>
+          <t>5736464668223622784</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>5736464668223622784</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>133.5234516989232</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-13.12773381233105</v>
+      </c>
+      <c r="R31" t="n">
+        <v>11.57757377624512</v>
+      </c>
+      <c r="S31" t="n">
+        <v>12.2809419631958</v>
+      </c>
+      <c r="T31" t="n">
+        <v>9.727146148681641</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.55379581451416</v>
+      </c>
+      <c r="V31" t="n">
+        <v>65.66507414233283</v>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6371169987425471232</t>
+          <t>5736464668224470400</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>327.2788630438553</v>
+        <v>133.5236644709698</v>
       </c>
       <c r="C32" t="n">
-        <v>-72.10361561215949</v>
+        <v>-13.12767858833451</v>
       </c>
       <c r="D32" t="n">
-        <v>9.054858207702637</v>
+        <v>11.38905048370361</v>
       </c>
       <c r="E32" t="n">
-        <v>9.877593994140625</v>
+        <v>12.22602462768555</v>
       </c>
       <c r="F32" t="n">
-        <v>7.839743614196777</v>
+        <v>9.686737060546875</v>
       </c>
       <c r="G32" t="n">
-        <v>60.49050116267507</v>
+        <v>66.2603998138584</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>4012.71</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>0.08057142</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0.5873103</t>
+          <t>4044.5203</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>6371169987425471232</t>
+          <t>5736464668224470400</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>6371169987426204928</t>
+          <t>5736464668224470400</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>6371169987426204928</t>
+          <t>5736464668224470400</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>327.2790186533686</v>
+        <v>133.5237124115487</v>
       </c>
       <c r="Q32" t="n">
-        <v>-72.10365039026789</v>
+        <v>-13.12775945294399</v>
       </c>
       <c r="R32" t="n">
-        <v>9.191134452819824</v>
+        <v>11.46639537811279</v>
       </c>
       <c r="S32" t="n">
-        <v>9.856142044067383</v>
+        <v>12.18689632415771</v>
       </c>
       <c r="T32" t="n">
-        <v>7.82235860824585</v>
+        <v>9.682451248168945</v>
       </c>
       <c r="U32" t="n">
-        <v>2.033783435821533</v>
+        <v>2.50444507598877</v>
       </c>
       <c r="V32" t="n">
-        <v>60.77627967604099</v>
+        <v>64.93545636698057</v>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5946986063684477056</t>
+          <t>6719152945029845376</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>263.8072213801677</v>
+        <v>286.6054157588619</v>
       </c>
       <c r="C33" t="n">
-        <v>-48.6788427227423</v>
+        <v>-37.06488085942344</v>
       </c>
       <c r="D33" t="n">
-        <v>9.283218383789062</v>
+        <v>4.717123985290527</v>
       </c>
       <c r="E33" t="n">
-        <v>10.49626731872559</v>
+        <v>4.816995620727539</v>
       </c>
       <c r="F33" t="n">
-        <v>8.218951225280762</v>
+        <v>4.114394664764404</v>
       </c>
       <c r="G33" t="n">
-        <v>103.3499876158996</v>
+        <v>57.85828017971518</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3509.118</t>
+          <t>6022.0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.029565195</t>
+          <t>2.852196</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.54734063</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>M</t>
+          <t>1.5515323</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>5946986063684477056</t>
+          <t>6719152945029845376</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>5946986063684477056</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>5946986063684477056</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>263.8072369826194</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>-48.67877743078911</v>
-      </c>
-      <c r="R33" t="n">
-        <v>9.293614387512207</v>
-      </c>
-      <c r="S33" t="n">
-        <v>10.48006439208984</v>
-      </c>
-      <c r="T33" t="n">
-        <v>8.208224296569824</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.27184009552002</v>
-      </c>
-      <c r="V33" t="n">
-        <v>103.308053194355</v>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>3509.118</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>0.029565195</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>0.54734063</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>M</t>
+          <t>6719152945029845376</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5946986063684477056</t>
+          <t>6719152945032456832</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>263.8072213801677</v>
+        <v>286.6053079615535</v>
       </c>
       <c r="C34" t="n">
-        <v>-48.6788427227423</v>
+        <v>-37.06450354954132</v>
       </c>
       <c r="D34" t="n">
-        <v>9.283218383789062</v>
+        <v>4.760257244110107</v>
       </c>
       <c r="E34" t="n">
-        <v>10.49626731872559</v>
+        <v>4.791435241699219</v>
       </c>
       <c r="F34" t="n">
-        <v>8.218951225280762</v>
+        <v>3.94169807434082</v>
       </c>
       <c r="G34" t="n">
-        <v>103.3499876158996</v>
+        <v>58.69555998807621</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3509.118</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>0.029565195</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0.54734063</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>M</t>
+          <t>5190.3335</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>5946986063684477056</t>
+          <t>6719152945032456832</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>5946986063686470784</t>
+          <t>6719152945029845376</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>6719152945029845376</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79.80577003837008</v>
+        <v>286.6054157588619</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.073222913358394</v>
+        <v>-37.06488085942344</v>
       </c>
       <c r="D35" t="n">
-        <v>7.478399753570557</v>
+        <v>4.717123985290527</v>
       </c>
       <c r="E35" t="n">
-        <v>8.042928695678711</v>
+        <v>4.816995620727539</v>
       </c>
       <c r="F35" t="n">
-        <v>6.742774486541748</v>
+        <v>4.114394664764404</v>
       </c>
       <c r="G35" t="n">
-        <v>63.65137588808516</v>
+        <v>57.85828017971518</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>4587.147</t>
+          <t>6022.0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.22333561</t>
+          <t>2.852196</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.74825865</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>K</t>
+          <t>1.5515323</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>6719152945029845376</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>3213958769587525888</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>79.80586741563162</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>-3.07320375008595</v>
-      </c>
-      <c r="R35" t="n">
-        <v>7.49282169342041</v>
-      </c>
-      <c r="S35" t="n">
-        <v>8.024881362915039</v>
-      </c>
-      <c r="T35" t="n">
-        <v>6.745429039001465</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.279452323913574</v>
-      </c>
-      <c r="V35" t="n">
-        <v>63.64345779109681</v>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>4587.147</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>0.22333561</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>0.74825865</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>K</t>
+          <t>6719152945032456832</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3213958769589070848</t>
+          <t>6719152945032456832</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79.80542734722003</v>
+        <v>286.6053079615535</v>
       </c>
       <c r="C36" t="n">
-        <v>-3.072972836242535</v>
+        <v>-37.06450354954132</v>
       </c>
       <c r="D36" t="n">
-        <v>9.889883041381836</v>
+        <v>4.760257244110107</v>
       </c>
       <c r="E36" t="n">
-        <v>10.13441944122314</v>
+        <v>4.791435241699219</v>
       </c>
       <c r="F36" t="n">
-        <v>8.577648162841797</v>
+        <v>3.94169807434082</v>
       </c>
       <c r="G36" t="n">
-        <v>57.97898590206367</v>
+        <v>58.69555998807621</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>5002.25</t>
+          <t>5190.3335</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>3213958769589070848</t>
+          <t>6719152945032456832</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>3213958769587525888</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>79.80586741563162</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>-3.07320375008595</v>
-      </c>
-      <c r="R36" t="n">
-        <v>7.49282169342041</v>
-      </c>
-      <c r="S36" t="n">
-        <v>8.024881362915039</v>
-      </c>
-      <c r="T36" t="n">
-        <v>6.745429039001465</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.279452323913574</v>
-      </c>
-      <c r="V36" t="n">
-        <v>63.64345779109681</v>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>4587.147</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>0.22333561</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>0.74825865</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>K</t>
+          <t>6719152945032456832</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>5718806408412985856</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>79.80577003837008</v>
+        <v>115.8625623656557</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.073222913358394</v>
+        <v>-17.09072821371808</v>
       </c>
       <c r="D37" t="n">
-        <v>7.478399753570557</v>
+        <v>11.28248977661133</v>
       </c>
       <c r="E37" t="n">
-        <v>8.042928695678711</v>
+        <v>10.87635803222656</v>
       </c>
       <c r="F37" t="n">
-        <v>6.742774486541748</v>
+        <v>10.72959136962891</v>
       </c>
       <c r="G37" t="n">
-        <v>63.65137588808516</v>
+        <v>62.2645033788526</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>4587.147</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>0.22333561</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0.74825865</t>
+          <t>6192.0</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>B</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>3213958769587525888</t>
+          <t>5718806408412985856</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3213958769589070848</t>
+          <t>5718806408405713024</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3213958769589070848</t>
+          <t>5718806408412985856</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>79.80542734722003</v>
+        <v>115.8625623656557</v>
       </c>
       <c r="C38" t="n">
-        <v>-3.072972836242535</v>
+        <v>-17.09072821371808</v>
       </c>
       <c r="D38" t="n">
-        <v>9.889883041381836</v>
+        <v>11.28248977661133</v>
       </c>
       <c r="E38" t="n">
-        <v>10.13441944122314</v>
+        <v>10.87635803222656</v>
       </c>
       <c r="F38" t="n">
-        <v>8.577648162841797</v>
+        <v>10.72959136962891</v>
       </c>
       <c r="G38" t="n">
-        <v>57.97898590206367</v>
+        <v>62.2645033788526</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>5002.25</t>
+          <t>6192.0</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>3213958769589070848</t>
+          <t>5718806408412985856</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>3213958769589070848</t>
+          <t>5718806408412985856</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>4516199240734836608</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>142.6740032632142</v>
+        <v>288.6603590924468</v>
       </c>
       <c r="C39" t="n">
-        <v>-40.466567086598</v>
+        <v>19.31957556139985</v>
       </c>
       <c r="D39" t="n">
-        <v>4.803853511810303</v>
+        <v>10.36974620819092</v>
       </c>
       <c r="E39" t="n">
-        <v>3.975138902664185</v>
+        <v>11.78960704803467</v>
       </c>
       <c r="F39" t="n">
-        <v>3.240525007247925</v>
+        <v>9.218977928161621</v>
       </c>
       <c r="G39" t="n">
-        <v>54.30532208415497</v>
+        <v>55.23721638452969</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>5095.6333</t>
+          <t>3853.2651</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>4516199240734836608</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>5426587107145955712</t>
+          <t>4516199313384903936</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5426587107145955712</t>
+          <t>4516199240734836608</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>142.6736805260494</v>
+        <v>288.6603590924468</v>
       </c>
       <c r="C40" t="n">
-        <v>-40.46642826305888</v>
+        <v>19.31957556139985</v>
       </c>
       <c r="D40" t="n">
-        <v>3.674772262573242</v>
+        <v>10.36974620819092</v>
       </c>
       <c r="E40" t="n">
-        <v>3.775615692138672</v>
+        <v>11.78960704803467</v>
       </c>
       <c r="F40" t="n">
-        <v>3.180518627166748</v>
+        <v>9.218977928161621</v>
       </c>
       <c r="G40" t="n">
-        <v>54.60594737051395</v>
+        <v>55.23721638452969</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>6812.0</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>8.295994</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>2.0679383</t>
+          <t>3853.2651</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>5426587107145955712</t>
+          <t>4516199240734836608</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>5426587107145955712</t>
+          <t>4516199313406309504</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>4516199313406309504</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>288.6602687451435</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>19.3196359991605</v>
+      </c>
+      <c r="R40" t="n">
+        <v>10.38890075683594</v>
+      </c>
+      <c r="S40" t="n">
+        <v>11.7808952331543</v>
+      </c>
+      <c r="T40" t="n">
+        <v>9.207647323608398</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.573247909545898</v>
+      </c>
+      <c r="V40" t="n">
+        <v>55.18619588827784</v>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>596779044285545984</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>142.6740032632142</v>
+        <v>132.6760398348613</v>
       </c>
       <c r="C41" t="n">
-        <v>-40.466567086598</v>
+        <v>7.864122327596015</v>
       </c>
       <c r="D41" t="n">
-        <v>4.803853511810303</v>
+        <v>9.30428409576416</v>
       </c>
       <c r="E41" t="n">
-        <v>3.975138902664185</v>
+        <v>9.669934272766113</v>
       </c>
       <c r="F41" t="n">
-        <v>3.240525007247925</v>
+        <v>7.656069755554199</v>
       </c>
       <c r="G41" t="n">
-        <v>54.30532208415497</v>
+        <v>56.11548072384026</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>5095.6333</t>
+          <t>3968.184</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0.07416474</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0.6615956</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>unknown</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>596779044285545984</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>596779044285041792</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>596779044285041792</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>132.6760375730596</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>7.86445109385351</v>
+      </c>
+      <c r="R41" t="n">
+        <v>9.072543144226074</v>
+      </c>
+      <c r="S41" t="n">
+        <v>9.401226043701172</v>
+      </c>
+      <c r="T41" t="n">
+        <v>7.613240242004395</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.787985801696777</v>
+      </c>
+      <c r="V41" t="n">
+        <v>56.00725934401263</v>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>3689.1877</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>0.09200179</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>0.74259245</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5426587107145955712</t>
+          <t>596779044285041792</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>142.6736805260494</v>
+        <v>132.676043587246</v>
       </c>
       <c r="C42" t="n">
-        <v>-40.46642826305888</v>
+        <v>7.864454757536701</v>
       </c>
       <c r="D42" t="n">
-        <v>3.674772262573242</v>
+        <v>9.069389343261719</v>
       </c>
       <c r="E42" t="n">
-        <v>3.775615692138672</v>
+        <v>9.312304496765137</v>
       </c>
       <c r="F42" t="n">
-        <v>3.180518627166748</v>
+        <v>7.628968715667725</v>
       </c>
       <c r="G42" t="n">
-        <v>54.60594737051395</v>
+        <v>56.18901160389031</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>6812.0</t>
+          <t>3689.1877</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>8.295994</t>
+          <t>0.09200179</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2.0679383</t>
+          <t>0.74259245</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>5426587107145955712</t>
+          <t>596779044285041792</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>5426587107149861120</t>
+          <t>596779044285041792</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>596779044285041792</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>132.6760375730596</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>7.86445109385351</v>
+      </c>
+      <c r="R42" t="n">
+        <v>9.072543144226074</v>
+      </c>
+      <c r="S42" t="n">
+        <v>9.401226043701172</v>
+      </c>
+      <c r="T42" t="n">
+        <v>7.613240242004395</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.787985801696777</v>
+      </c>
+      <c r="V42" t="n">
+        <v>56.00725934401263</v>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>3689.1877</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>0.09200179</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>0.74259245</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3699797150759489792</t>
+          <t>596779044285545984</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.1066116242112</v>
+        <v>132.6760398348613</v>
       </c>
       <c r="C43" t="n">
-        <v>0.583451683457159</v>
+        <v>7.864122327596015</v>
       </c>
       <c r="D43" t="n">
-        <v>9.402151107788086</v>
+        <v>9.30428409576416</v>
       </c>
       <c r="E43" t="n">
-        <v>10.21803951263428</v>
+        <v>9.669934272766113</v>
       </c>
       <c r="F43" t="n">
-        <v>8.19732666015625</v>
+        <v>7.656069755554199</v>
       </c>
       <c r="G43" t="n">
-        <v>57.29620491552411</v>
+        <v>56.11548072384026</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>4051.515</t>
+          <t>3968.184</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0.0635869</t>
+          <t>0.07416474</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.51180154</t>
+          <t>0.6615956</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3699797150759489792</t>
+          <t>596779044285545984</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>3699797150759489792</t>
+          <t>596779044285545984</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>3699797150759489792</t>
+          <t>596779044285545984</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>185.1066189569498</v>
+        <v>132.6760249411678</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.5834481084068606</v>
+        <v>7.864124459558615</v>
       </c>
       <c r="R43" t="n">
-        <v>9.414559364318848</v>
+        <v>9.315723419189453</v>
       </c>
       <c r="S43" t="n">
-        <v>10.20209217071533</v>
+        <v>9.586329460144043</v>
       </c>
       <c r="T43" t="n">
-        <v>8.179805755615234</v>
+        <v>7.633227348327637</v>
       </c>
       <c r="U43" t="n">
-        <v>2.022286415100098</v>
+        <v>1.953102111816406</v>
       </c>
       <c r="V43" t="n">
-        <v>57.1262796579985</v>
+        <v>56.31319919991991</v>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>3968.184</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>0.07416474</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>0.6615956</t>
+        </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3699797150759489792</t>
+          <t>596779044285041792</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>185.1066116242112</v>
+        <v>132.676043587246</v>
       </c>
       <c r="C44" t="n">
-        <v>0.583451683457159</v>
+        <v>7.864454757536701</v>
       </c>
       <c r="D44" t="n">
-        <v>9.402151107788086</v>
+        <v>9.069389343261719</v>
       </c>
       <c r="E44" t="n">
-        <v>10.21803951263428</v>
+        <v>9.312304496765137</v>
       </c>
       <c r="F44" t="n">
-        <v>8.19732666015625</v>
+        <v>7.628968715667725</v>
       </c>
       <c r="G44" t="n">
-        <v>57.29620491552411</v>
+        <v>56.18901160389031</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>4051.515</t>
+          <t>3689.1877</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0.0635869</t>
+          <t>0.09200179</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0.51180154</t>
+          <t>0.74259245</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3502,218 +3416,248 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3699797150759489792</t>
+          <t>596779044285041792</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>3699797155055781760</t>
+          <t>596779044285545984</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>596779044285545984</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>132.6760249411678</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>7.864124459558615</v>
+      </c>
+      <c r="R44" t="n">
+        <v>9.315723419189453</v>
+      </c>
+      <c r="S44" t="n">
+        <v>9.586329460144043</v>
+      </c>
+      <c r="T44" t="n">
+        <v>7.633227348327637</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.953102111816406</v>
+      </c>
+      <c r="V44" t="n">
+        <v>56.31319919991991</v>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>3968.184</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>0.07416474</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>0.6615956</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>unknown</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>6368299918479525632</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>336.6440634509766</v>
+        <v>318.5525315671628</v>
       </c>
       <c r="C45" t="n">
-        <v>-16.74185644464832</v>
+        <v>-76.55796841526256</v>
       </c>
       <c r="D45" t="n">
-        <v>6.198555946350098</v>
+        <v>11.14993381500244</v>
       </c>
       <c r="E45" t="n">
-        <v>6.208871841430664</v>
+        <v>12.48196792602539</v>
       </c>
       <c r="F45" t="n">
-        <v>5.265100002288818</v>
+        <v>9.820988655090332</v>
       </c>
       <c r="G45" t="n">
-        <v>51.50789426625737</v>
+        <v>51.2127645838033</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>5143.45</t>
+          <t>4012.71</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>6368299918479525632</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2595463992699783424</t>
+          <t>6368299918477801728</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>6368299918479525632</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>336.6440634509766</v>
+        <v>318.5525315671628</v>
       </c>
       <c r="C46" t="n">
-        <v>-16.74185644464832</v>
+        <v>-76.55796841526256</v>
       </c>
       <c r="D46" t="n">
-        <v>6.198555946350098</v>
+        <v>11.14993381500244</v>
       </c>
       <c r="E46" t="n">
-        <v>6.208871841430664</v>
+        <v>12.48196792602539</v>
       </c>
       <c r="F46" t="n">
-        <v>5.265100002288818</v>
+        <v>9.820988655090332</v>
       </c>
       <c r="G46" t="n">
-        <v>51.50789426625737</v>
+        <v>51.2127645838033</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>5143.45</t>
+          <t>4012.71</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>6368299918479525632</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2595463996992115840</t>
+          <t>6368299918479525632</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>6368299918479525632</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>318.5525812632994</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-76.55799954138365</v>
+      </c>
+      <c r="R46" t="n">
+        <v>11.40586948394775</v>
+      </c>
+      <c r="S46" t="n">
+        <v>12.45745086669922</v>
+      </c>
+      <c r="T46" t="n">
+        <v>9.79935359954834</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.658097267150879</v>
+      </c>
+      <c r="V46" t="n">
+        <v>52.21042157140486</v>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>598180818531355776</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>75.61785590280779</v>
+        <v>130.6867960295742</v>
       </c>
       <c r="C47" t="n">
-        <v>-21.25784077680808</v>
+        <v>9.55428416381455</v>
       </c>
       <c r="D47" t="n">
-        <v>7.750740051269531</v>
-      </c>
-      <c r="E47" t="n">
-        <v>8.57557487487793</v>
-      </c>
-      <c r="F47" t="n">
-        <v>6.656546115875244</v>
+        <v>11.87761497497559</v>
       </c>
       <c r="G47" t="n">
-        <v>119.3398737310191</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>4063.5964</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>0.06656814</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>0.52055275</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
+        <v>61.76335287331371</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>598180818531355776</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>2974726131970829952</t>
-        </is>
-      </c>
-      <c r="P47" t="n">
-        <v>75.6178310374648</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>-21.25787832693494</v>
-      </c>
-      <c r="R47" t="n">
-        <v>7.792407512664795</v>
-      </c>
-      <c r="S47" t="n">
-        <v>8.551479339599609</v>
-      </c>
-      <c r="T47" t="n">
-        <v>6.645774841308594</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.905704498291016</v>
-      </c>
-      <c r="V47" t="n">
-        <v>119.5737439372057</v>
-      </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>K</t>
+          <t>598180818531355776</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>75.61785590280779</v>
+        <v>130.6865172420918</v>
       </c>
       <c r="C48" t="n">
-        <v>-21.25784077680808</v>
+        <v>9.5539723965289</v>
       </c>
       <c r="D48" t="n">
-        <v>7.750740051269531</v>
+        <v>8.946824073791504</v>
       </c>
       <c r="E48" t="n">
-        <v>8.57557487487793</v>
+        <v>9.887347221374512</v>
       </c>
       <c r="F48" t="n">
-        <v>6.656546115875244</v>
+        <v>7.971009254455566</v>
       </c>
       <c r="G48" t="n">
-        <v>119.3398737310191</v>
+        <v>64.3680016469628</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>4063.5964</t>
+          <t>3873.0</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.06656814</t>
+          <t>0.3356494</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.52055275</t>
+          <t>1.2673832</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3723,742 +3667,5048 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2974726131970829952</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2974726136265625088</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>2974726136265625088</t>
-        </is>
-      </c>
-      <c r="P48" t="n">
-        <v>75.61776596344842</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>-21.25763920201128</v>
-      </c>
-      <c r="R48" t="n">
-        <v>9.636775970458984</v>
-      </c>
-      <c r="S48" t="n">
-        <v>8.56764030456543</v>
-      </c>
-      <c r="T48" t="n">
-        <v>6.678545475006104</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.889094829559326</v>
-      </c>
-      <c r="V48" t="n">
-        <v>118.8249653646052</v>
+          <t>598180818531355776</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>604756890202697728</t>
+          <t>598180818531355776</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>134.269375638669</v>
+        <v>130.6867960295742</v>
       </c>
       <c r="C49" t="n">
-        <v>11.64555935981716</v>
+        <v>9.55428416381455</v>
       </c>
       <c r="D49" t="n">
-        <v>9.820775985717773</v>
-      </c>
-      <c r="E49" t="n">
-        <v>10.84401416778564</v>
-      </c>
-      <c r="F49" t="n">
-        <v>8.701269149780273</v>
+        <v>11.87761497497559</v>
       </c>
       <c r="G49" t="n">
-        <v>58.42078344464063</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>3827.2</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
+        <v>61.76335287331371</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>604756890202697728</t>
+          <t>598180818531355776</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>604756890202697728</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>604756890202697728</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>134.2693739717275</v>
+        <v>130.6865487902776</v>
       </c>
       <c r="Q49" t="n">
-        <v>11.645516175304</v>
+        <v>9.553884675324547</v>
       </c>
       <c r="R49" t="n">
-        <v>9.958462715148926</v>
+        <v>8.95395565032959</v>
       </c>
       <c r="S49" t="n">
-        <v>10.82699108123779</v>
+        <v>9.869359970092773</v>
       </c>
       <c r="T49" t="n">
-        <v>8.686419486999512</v>
+        <v>7.95960807800293</v>
       </c>
       <c r="U49" t="n">
-        <v>2.140571594238281</v>
+        <v>1.909751892089844</v>
       </c>
       <c r="V49" t="n">
-        <v>61.32382466236479</v>
+        <v>64.68101125800112</v>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>0.3356494</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>1.2673832</t>
+        </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>604756890202697728</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>134.269375638669</v>
+        <v>130.6865172420918</v>
       </c>
       <c r="C50" t="n">
-        <v>11.64555935981716</v>
+        <v>9.5539723965289</v>
       </c>
       <c r="D50" t="n">
-        <v>9.820775985717773</v>
+        <v>8.946824073791504</v>
       </c>
       <c r="E50" t="n">
-        <v>10.84401416778564</v>
+        <v>9.887347221374512</v>
       </c>
       <c r="F50" t="n">
-        <v>8.701269149780273</v>
+        <v>7.971009254455566</v>
       </c>
       <c r="G50" t="n">
-        <v>58.42078344464063</v>
+        <v>64.3680016469628</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>3827.2</t>
+          <t>3873.0</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0.3356494</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1.2673832</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>604756890202697728</t>
+          <t>598180818531935232</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>604756894497812864</t>
+          <t>598180818531935232</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>598180818531935232</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>130.6865487902776</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>9.553884675324547</v>
+      </c>
+      <c r="R50" t="n">
+        <v>8.95395565032959</v>
+      </c>
+      <c r="S50" t="n">
+        <v>9.869359970092773</v>
+      </c>
+      <c r="T50" t="n">
+        <v>7.95960807800293</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.909751892089844</v>
+      </c>
+      <c r="V50" t="n">
+        <v>64.68101125800112</v>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>0.3356494</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>1.2673832</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5853498713160606720</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>217.3934657426036</v>
+        <v>180.1856175191175</v>
       </c>
       <c r="C51" t="n">
-        <v>-62.67618210292382</v>
+        <v>-10.44820514671702</v>
       </c>
       <c r="D51" t="n">
-        <v>8.953612327575684</v>
+        <v>5.328901290893555</v>
       </c>
       <c r="E51" t="n">
-        <v>11.38292598724365</v>
+        <v>5.751168727874756</v>
       </c>
       <c r="F51" t="n">
-        <v>7.586430072784424</v>
+        <v>4.824667453765869</v>
       </c>
       <c r="G51" t="n">
-        <v>768.5003653333918</v>
+        <v>78.75648094040741</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>3295.5</t>
+          <t>5510.1235</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0.8837685</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0.859334</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1.0129887</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>G</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>5853498713160606720</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>5853498713190523520</t>
+          <t>3575733210778695808</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5853498713160606720</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>217.3934657426036</v>
+        <v>180.1856175191175</v>
       </c>
       <c r="C52" t="n">
-        <v>-62.67618210292382</v>
+        <v>-10.44820514671702</v>
       </c>
       <c r="D52" t="n">
-        <v>8.953612327575684</v>
+        <v>5.328901290893555</v>
       </c>
       <c r="E52" t="n">
-        <v>11.38292598724365</v>
+        <v>5.751168727874756</v>
       </c>
       <c r="F52" t="n">
-        <v>7.586430072784424</v>
+        <v>4.824667453765869</v>
       </c>
       <c r="G52" t="n">
-        <v>768.5003653333918</v>
+        <v>78.75648094040741</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>3295.5</t>
+          <t>5510.1235</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0.8837685</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0.859334</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1.0129887</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>G</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>5853498713160606720</t>
+          <t>3575733210781078016</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>5853498713190524032</t>
+          <t>3575733210781078016</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>3575733210781078016</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>180.1856293061816</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-10.44827200397585</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5.355077266693115</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5.731156826019287</v>
+      </c>
+      <c r="T52" t="n">
+        <v>4.805628299713135</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.9255285263061523</v>
+      </c>
+      <c r="V52" t="n">
+        <v>78.33591471044681</v>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>5510.1235</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>0.8837685</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>0.859334</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>1.0129887</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5853498713160606720</t>
+          <t>3117120863523946368</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>217.3934657426036</v>
+        <v>97.35069832372695</v>
       </c>
       <c r="C53" t="n">
-        <v>-62.67618210292382</v>
+        <v>-2.817013778345798</v>
       </c>
       <c r="D53" t="n">
-        <v>8.953612327575684</v>
+        <v>9.580621719360352</v>
       </c>
       <c r="E53" t="n">
-        <v>11.38292598724365</v>
+        <v>11.37590312957764</v>
       </c>
       <c r="F53" t="n">
-        <v>7.586430072784424</v>
+        <v>8.275747299194336</v>
       </c>
       <c r="G53" t="n">
-        <v>768.5003653333918</v>
+        <v>242.9658901759567</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>3295.5</t>
+          <t>4293.077</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>5853498713160606720</t>
+          <t>3117120863523946368</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>5853498713190525696</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>5853498713190525696</t>
-        </is>
-      </c>
-      <c r="P53" t="n">
-        <v>217.3923214720088</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>-62.67607511676666</v>
-      </c>
-      <c r="R53" t="n">
-        <v>8.984748840332031</v>
-      </c>
-      <c r="S53" t="n">
-        <v>11.37311553955078</v>
-      </c>
-      <c r="T53" t="n">
-        <v>7.568535327911377</v>
-      </c>
-      <c r="U53" t="n">
-        <v>3.804580211639404</v>
-      </c>
-      <c r="V53" t="n">
-        <v>768.0665391873573</v>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>2829.3542</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>0.0015221541</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>0.16237111</t>
-        </is>
-      </c>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>M</t>
+          <t>3117120863519565568</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4548562265603840768</t>
+          <t>3117120863523946368</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>258.9581327576004</v>
+        <v>97.35069832372695</v>
       </c>
       <c r="C54" t="n">
-        <v>19.00008178285036</v>
+        <v>-2.817013778345798</v>
       </c>
       <c r="D54" t="n">
-        <v>9.643589019775391</v>
+        <v>9.580621719360352</v>
       </c>
       <c r="E54" t="n">
-        <v>10.62963771820068</v>
+        <v>11.37590312957764</v>
       </c>
       <c r="F54" t="n">
-        <v>8.598058700561523</v>
+        <v>8.275747299194336</v>
       </c>
       <c r="G54" t="n">
-        <v>73.10602141993046</v>
+        <v>242.9658901759567</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>3671.2068</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>0.03414832</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>0.4769425</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>unknown</t>
+          <t>4293.077</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>4548562265603840768</t>
+          <t>3117120863523946368</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>4548562265603840768</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>4548562265603840768</t>
-        </is>
-      </c>
-      <c r="P54" t="n">
-        <v>258.9581105968307</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>19.00008369604771</v>
-      </c>
-      <c r="R54" t="n">
-        <v>9.650931358337402</v>
-      </c>
-      <c r="S54" t="n">
-        <v>10.61354923248291</v>
-      </c>
-      <c r="T54" t="n">
-        <v>8.587146759033203</v>
-      </c>
-      <c r="U54" t="n">
-        <v>2.026402473449707</v>
-      </c>
-      <c r="V54" t="n">
-        <v>73.06209239932777</v>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>3671.2068</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>0.03414832</t>
-        </is>
-      </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>0.4769425</t>
-        </is>
-      </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>unknown</t>
+          <t>3117120863523946368</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4548562265603840768</t>
+          <t>3181197137010596608</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>258.9581327576004</v>
+        <v>71.71513779929116</v>
       </c>
       <c r="C55" t="n">
-        <v>19.00008178285036</v>
+        <v>-11.28015204302924</v>
       </c>
       <c r="D55" t="n">
-        <v>9.643589019775391</v>
+        <v>11.38980102539062</v>
       </c>
       <c r="E55" t="n">
-        <v>10.62963771820068</v>
+        <v>12.72490119934082</v>
       </c>
       <c r="F55" t="n">
-        <v>8.598058700561523</v>
+        <v>10.07029438018799</v>
       </c>
       <c r="G55" t="n">
-        <v>73.10602141993046</v>
+        <v>52.69274123075154</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>3671.2068</t>
+          <t>3278.751</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0.03414832</t>
+          <t>0.019089546</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.4769425</t>
+          <t>0.41748595</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>4548562265603840768</t>
+          <t>3181197137010596608</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>4548562269906020352</t>
+          <t>3181197137010596480</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>3181197137010596608</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>196.5638957330539</v>
+        <v>71.71513779929116</v>
       </c>
       <c r="C56" t="n">
-        <v>20.72965678223564</v>
+        <v>-11.28015204302924</v>
       </c>
       <c r="D56" t="n">
-        <v>8.969438552856445</v>
+        <v>11.38980102539062</v>
       </c>
       <c r="E56" t="n">
-        <v>9.729983329772949</v>
+        <v>12.72490119934082</v>
       </c>
       <c r="F56" t="n">
-        <v>8.007077217102051</v>
+        <v>10.07029438018799</v>
       </c>
       <c r="G56" t="n">
-        <v>50.90347875548716</v>
+        <v>52.69274123075154</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4006.3718</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>0.64154863</t>
+          <t>3278.751</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0.1079833</t>
+          <t>0.019089546</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.68242973</t>
+          <t>0.41748595</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>3181197137010596608</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>3943232534137347072</t>
+          <t>3181197137010596608</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>3181197137010596608</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>71.71511766813263</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-11.28016001009906</v>
+      </c>
+      <c r="R56" t="n">
+        <v>11.40020942687988</v>
+      </c>
+      <c r="S56" t="n">
+        <v>12.70285797119141</v>
+      </c>
+      <c r="T56" t="n">
+        <v>10.04212665557861</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.660731315612793</v>
+      </c>
+      <c r="V56" t="n">
+        <v>52.77235441858288</v>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>3278.751</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>0.019089546</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>0.41748595</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>4561968271578549632</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>196.5638957330539</v>
+        <v>254.7899275418677</v>
       </c>
       <c r="C57" t="n">
-        <v>20.72965678223564</v>
+        <v>20.97174535915752</v>
       </c>
       <c r="D57" t="n">
-        <v>8.969438552856445</v>
+        <v>11.35687637329102</v>
       </c>
       <c r="E57" t="n">
-        <v>9.729983329772949</v>
+        <v>12.66237354278564</v>
       </c>
       <c r="F57" t="n">
-        <v>8.007077217102051</v>
+        <v>10.00692653656006</v>
       </c>
       <c r="G57" t="n">
-        <v>50.90347875548716</v>
+        <v>56.18206271160806</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>4006.3718</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>0.64154863</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>0.1079833</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>0.68242973</t>
+          <t>3823.9333</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
+          <t>4561968271578549632</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>3943232534138172672</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>3943232534138172672</t>
-        </is>
-      </c>
-      <c r="P57" t="n">
-        <v>196.563887451697</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>20.72966994150692</v>
-      </c>
-      <c r="R57" t="n">
-        <v>8.973732948303223</v>
-      </c>
-      <c r="S57" t="n">
-        <v>9.684998512268066</v>
-      </c>
-      <c r="T57" t="n">
-        <v>8.016292572021484</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.668705940246582</v>
-      </c>
-      <c r="V57" t="n">
-        <v>50.80727454464759</v>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>4006.3718</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>0.64154863</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>0.1079833</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>0.68242973</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>K</t>
+          <t>4561968267282882688</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5091025641634025984</t>
+          <t>4561968271578549632</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>62.32896483206782</v>
+        <v>254.7899275418677</v>
       </c>
       <c r="C58" t="n">
-        <v>-20.41643992803905</v>
+        <v>20.97174535915752</v>
       </c>
       <c r="D58" t="n">
-        <v>8.992939949035645</v>
+        <v>11.35687637329102</v>
       </c>
       <c r="E58" t="n">
-        <v>9.285513877868652</v>
+        <v>12.66237354278564</v>
       </c>
       <c r="F58" t="n">
-        <v>8.515896797180176</v>
+        <v>10.00692653656006</v>
       </c>
       <c r="G58" t="n">
-        <v>51.14039636287707</v>
+        <v>56.18206271160806</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>6084.6665</t>
+          <t>3823.9333</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>5091025641634025984</t>
+          <t>4561968271578549632</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>5091025641634025984</t>
+          <t>4561968271578549632</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>4561968271578549632</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>254.7899234576069</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>20.97176340202292</v>
+      </c>
+      <c r="R58" t="n">
+        <v>11.50421237945557</v>
+      </c>
+      <c r="S58" t="n">
+        <v>12.637619972229</v>
+      </c>
+      <c r="T58" t="n">
+        <v>9.98332405090332</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.654295921325684</v>
+      </c>
+      <c r="V58" t="n">
+        <v>50.77276348117683</v>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>3165346538729784192</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>113.7343779218443</v>
+      </c>
+      <c r="C59" t="n">
+        <v>14.7646007315158</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10.39511871337891</v>
+      </c>
+      <c r="E59" t="n">
+        <v>11.50105285644531</v>
+      </c>
+      <c r="F59" t="n">
+        <v>9.056132316589355</v>
+      </c>
+      <c r="G59" t="n">
+        <v>61.79512713964984</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>3917.3333</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>3165346538729784192</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>3165346538729784192</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>3165346538729784192</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>113.734367697144</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>14.76458970617123</v>
+      </c>
+      <c r="R59" t="n">
+        <v>10.44034576416016</v>
+      </c>
+      <c r="S59" t="n">
+        <v>11.48402690887451</v>
+      </c>
+      <c r="T59" t="n">
+        <v>8.993024826049805</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.491002082824707</v>
+      </c>
+      <c r="V59" t="n">
+        <v>61.36709942162104</v>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3165346538729784192</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>113.7343779218443</v>
+      </c>
+      <c r="C60" t="n">
+        <v>14.7646007315158</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10.39511871337891</v>
+      </c>
+      <c r="E60" t="n">
+        <v>11.50105285644531</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9.056132316589355</v>
+      </c>
+      <c r="G60" t="n">
+        <v>61.79512713964984</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>3917.3333</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>3165346538729784192</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>3165346543026736512</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3080863574244739712</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>117.4614843657394</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-3.288949903071281</v>
+      </c>
+      <c r="D61" t="n">
+        <v>11.55008602142334</v>
+      </c>
+      <c r="E61" t="n">
+        <v>13.18886947631836</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10.28241539001465</v>
+      </c>
+      <c r="G61" t="n">
+        <v>58.80841825192258</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>3162.7915</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>0.016620172</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0.47704306</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>3080863574244739712</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>3080863574242572032</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>3080863574242572032</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>117.4609253739856</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-3.288993547642685</v>
+      </c>
+      <c r="R61" t="n">
+        <v>11.91996574401855</v>
+      </c>
+      <c r="S61" t="n">
+        <v>13.46108341217041</v>
+      </c>
+      <c r="T61" t="n">
+        <v>10.59073257446289</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.87035083770752</v>
+      </c>
+      <c r="V61" t="n">
+        <v>58.65766779452837</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3080863574242572032</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>117.4609446750613</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-3.288988451148158</v>
+      </c>
+      <c r="D62" t="n">
+        <v>11.92208862304688</v>
+      </c>
+      <c r="E62" t="n">
+        <v>13.47998046875</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10.62602233886719</v>
+      </c>
+      <c r="G62" t="n">
+        <v>58.78391303369008</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>4492.24</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>3080863574242572032</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>3080863574242572032</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>3080863574242572032</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>117.4609253739856</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-3.288993547642685</v>
+      </c>
+      <c r="R62" t="n">
+        <v>11.91996574401855</v>
+      </c>
+      <c r="S62" t="n">
+        <v>13.46108341217041</v>
+      </c>
+      <c r="T62" t="n">
+        <v>10.59073257446289</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.87035083770752</v>
+      </c>
+      <c r="V62" t="n">
+        <v>58.65766779452837</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3080863574244739712</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>117.4614843657394</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-3.288949903071281</v>
+      </c>
+      <c r="D63" t="n">
+        <v>11.55008602142334</v>
+      </c>
+      <c r="E63" t="n">
+        <v>13.18886947631836</v>
+      </c>
+      <c r="F63" t="n">
+        <v>10.28241539001465</v>
+      </c>
+      <c r="G63" t="n">
+        <v>58.80841825192258</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>3162.7915</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0.016620172</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0.47704306</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>3080863574244739712</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>3080863574244739712</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>3080863574244739712</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>117.461460156959</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-3.288958911877469</v>
+      </c>
+      <c r="R63" t="n">
+        <v>11.55102348327637</v>
+      </c>
+      <c r="S63" t="n">
+        <v>13.15095329284668</v>
+      </c>
+      <c r="T63" t="n">
+        <v>10.24977111816406</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.901182174682617</v>
+      </c>
+      <c r="V63" t="n">
+        <v>58.68278747114979</v>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>3162.7915</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>0.016620172</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>0.47704306</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3080863574242572032</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>117.4609446750613</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-3.288988451148158</v>
+      </c>
+      <c r="D64" t="n">
+        <v>11.92208862304688</v>
+      </c>
+      <c r="E64" t="n">
+        <v>13.47998046875</v>
+      </c>
+      <c r="F64" t="n">
+        <v>10.62602233886719</v>
+      </c>
+      <c r="G64" t="n">
+        <v>58.78391303369008</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>4492.24</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>3080863574242572032</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>3080863574244739712</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>3080863574244739712</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>117.461460156959</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-3.288958911877469</v>
+      </c>
+      <c r="R64" t="n">
+        <v>11.55102348327637</v>
+      </c>
+      <c r="S64" t="n">
+        <v>13.15095329284668</v>
+      </c>
+      <c r="T64" t="n">
+        <v>10.24977111816406</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.901182174682617</v>
+      </c>
+      <c r="V64" t="n">
+        <v>58.68278747114979</v>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>3162.7915</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>0.016620172</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>0.47704306</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2571309955621962240</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>30.61730570487827</v>
+      </c>
+      <c r="C65" t="n">
+        <v>10.58108398239842</v>
+      </c>
+      <c r="D65" t="n">
+        <v>11.86524200439453</v>
+      </c>
+      <c r="E65" t="n">
+        <v>13.11831760406494</v>
+      </c>
+      <c r="F65" t="n">
+        <v>10.18556976318359</v>
+      </c>
+      <c r="G65" t="n">
+        <v>70.42564103007484</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>3766.285</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>2571309955621962240</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>2571309955621962240</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>2571309955621962240</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>30.6172984882629</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>10.58107052718174</v>
+      </c>
+      <c r="R65" t="n">
+        <v>11.87772369384766</v>
+      </c>
+      <c r="S65" t="n">
+        <v>13.0846700668335</v>
+      </c>
+      <c r="T65" t="n">
+        <v>10.15690422058105</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.927765846252441</v>
+      </c>
+      <c r="V65" t="n">
+        <v>69.63528953415874</v>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2571309955621962240</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>30.61730570487827</v>
+      </c>
+      <c r="C66" t="n">
+        <v>10.58108398239842</v>
+      </c>
+      <c r="D66" t="n">
+        <v>11.86524200439453</v>
+      </c>
+      <c r="E66" t="n">
+        <v>13.11831760406494</v>
+      </c>
+      <c r="F66" t="n">
+        <v>10.18556976318359</v>
+      </c>
+      <c r="G66" t="n">
+        <v>70.42564103007484</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>3766.285</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2571309955621962240</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>2571309959912985472</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>6371169987425471232</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>327.2788630438553</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-72.10361561215949</v>
+      </c>
+      <c r="D67" t="n">
+        <v>9.054858207702637</v>
+      </c>
+      <c r="E67" t="n">
+        <v>9.877593994140625</v>
+      </c>
+      <c r="F67" t="n">
+        <v>7.839743614196777</v>
+      </c>
+      <c r="G67" t="n">
+        <v>60.49050116267507</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>4012.71</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0.08057142</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0.5873103</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>6371169987425471232</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>6371169987423911168</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>6371169987425471232</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>327.2788630438553</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-72.10361561215949</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9.054858207702637</v>
+      </c>
+      <c r="E68" t="n">
+        <v>9.877593994140625</v>
+      </c>
+      <c r="F68" t="n">
+        <v>7.839743614196777</v>
+      </c>
+      <c r="G68" t="n">
+        <v>60.49050116267507</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>4012.71</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0.08057142</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0.5873103</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>6371169987425471232</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>6371169987426204800</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>6371169987425471232</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>327.2788630438553</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-72.10361561215949</v>
+      </c>
+      <c r="D69" t="n">
+        <v>9.054858207702637</v>
+      </c>
+      <c r="E69" t="n">
+        <v>9.877593994140625</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7.839743614196777</v>
+      </c>
+      <c r="G69" t="n">
+        <v>60.49050116267507</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>4012.71</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0.08057142</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0.5873103</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>6371169987425471232</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>6371169987426204928</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>6371169987426204928</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>327.2790186533686</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>-72.10365039026789</v>
+      </c>
+      <c r="R69" t="n">
+        <v>9.191134452819824</v>
+      </c>
+      <c r="S69" t="n">
+        <v>9.856142044067383</v>
+      </c>
+      <c r="T69" t="n">
+        <v>7.82235860824585</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.033783435821533</v>
+      </c>
+      <c r="V69" t="n">
+        <v>60.77627967604099</v>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4941699593078093952</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>26.92866805191749</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-48.60282127305472</v>
+      </c>
+      <c r="D70" t="n">
+        <v>11.37154865264893</v>
+      </c>
+      <c r="E70" t="n">
+        <v>12.6948413848877</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9.957320213317871</v>
+      </c>
+      <c r="G70" t="n">
+        <v>59.26364584447912</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>3818.205</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>4941699593078093952</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>4941699593076520704</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4941699593078093952</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>26.92866805191749</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-48.60282127305472</v>
+      </c>
+      <c r="D71" t="n">
+        <v>11.37154865264893</v>
+      </c>
+      <c r="E71" t="n">
+        <v>12.6948413848877</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9.957320213317871</v>
+      </c>
+      <c r="G71" t="n">
+        <v>59.26364584447912</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>3818.205</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>4941699593078093952</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>4941699593078093952</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>4941699593078093952</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>26.92871834094823</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>-48.60286554926218</v>
+      </c>
+      <c r="R71" t="n">
+        <v>11.60289764404297</v>
+      </c>
+      <c r="S71" t="n">
+        <v>12.66765594482422</v>
+      </c>
+      <c r="T71" t="n">
+        <v>9.931642532348633</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.736013412475586</v>
+      </c>
+      <c r="V71" t="n">
+        <v>64.08793947569066</v>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>5699418131466175488</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>123.7971795635656</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-23.73740281429323</v>
+      </c>
+      <c r="D72" t="n">
+        <v>11.04361057281494</v>
+      </c>
+      <c r="E72" t="n">
+        <v>12.61847877502441</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9.841110229492188</v>
+      </c>
+      <c r="G72" t="n">
+        <v>101.2625444904345</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>3189.2764</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0.007910796</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0.29134193</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>5699418131466175488</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>5699418131466175488</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>5699418131466175488</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>123.7971966123976</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>-23.73739379319095</v>
+      </c>
+      <c r="R72" t="n">
+        <v>11.05938625335693</v>
+      </c>
+      <c r="S72" t="n">
+        <v>12.59978294372559</v>
+      </c>
+      <c r="T72" t="n">
+        <v>9.824502944946289</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.775279998779297</v>
+      </c>
+      <c r="V72" t="n">
+        <v>101.0408151231636</v>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>3189.2764</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>0.007910796</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>0.29134193</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>5699418131466175488</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>123.7971795635656</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-23.73740281429323</v>
+      </c>
+      <c r="D73" t="n">
+        <v>11.04361057281494</v>
+      </c>
+      <c r="E73" t="n">
+        <v>12.61847877502441</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9.841110229492188</v>
+      </c>
+      <c r="G73" t="n">
+        <v>101.2625444904345</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>3189.2764</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0.007910796</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0.29134193</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>5699418131466175488</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>5699418135764054016</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>5946986063684477056</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>263.8072213801677</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-48.6788427227423</v>
+      </c>
+      <c r="D74" t="n">
+        <v>9.283218383789062</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10.49626731872559</v>
+      </c>
+      <c r="F74" t="n">
+        <v>8.218951225280762</v>
+      </c>
+      <c r="G74" t="n">
+        <v>103.3499876158996</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>3509.118</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0.029565195</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0.54734063</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>5946986063684477056</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>5946986063684477056</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>5946986063684477056</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>263.8072369826194</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>-48.67877743078911</v>
+      </c>
+      <c r="R74" t="n">
+        <v>9.293614387512207</v>
+      </c>
+      <c r="S74" t="n">
+        <v>10.48006439208984</v>
+      </c>
+      <c r="T74" t="n">
+        <v>8.208224296569824</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.27184009552002</v>
+      </c>
+      <c r="V74" t="n">
+        <v>103.308053194355</v>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>3509.118</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>0.029565195</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>0.54734063</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>5946986063684477056</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>263.8072213801677</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-48.6788427227423</v>
+      </c>
+      <c r="D75" t="n">
+        <v>9.283218383789062</v>
+      </c>
+      <c r="E75" t="n">
+        <v>10.49626731872559</v>
+      </c>
+      <c r="F75" t="n">
+        <v>8.218951225280762</v>
+      </c>
+      <c r="G75" t="n">
+        <v>103.3499876158996</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>3509.118</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0.029565195</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0.54734063</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>5946986063684477056</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>5946986063686470784</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>6364795328246346112</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>272.8149060406134</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-78.98837669150387</v>
+      </c>
+      <c r="D76" t="n">
+        <v>11.21989345550537</v>
+      </c>
+      <c r="E76" t="n">
+        <v>12.95298194885254</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9.84483814239502</v>
+      </c>
+      <c r="G76" t="n">
+        <v>85.83727732239498</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>4107.235</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>6364795328246346112</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>6364795328244240256</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>6364795328246346112</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>272.8149060406134</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-78.98837669150387</v>
+      </c>
+      <c r="D77" t="n">
+        <v>11.21989345550537</v>
+      </c>
+      <c r="E77" t="n">
+        <v>12.95298194885254</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9.84483814239502</v>
+      </c>
+      <c r="G77" t="n">
+        <v>85.83727732239498</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>4107.235</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>6364795328246346112</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>6364795328246346112</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>6364795328246346112</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>272.8149504866677</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>-78.98833531140249</v>
+      </c>
+      <c r="R77" t="n">
+        <v>11.24090480804443</v>
+      </c>
+      <c r="S77" t="n">
+        <v>12.9295825958252</v>
+      </c>
+      <c r="T77" t="n">
+        <v>9.830215454101562</v>
+      </c>
+      <c r="U77" t="n">
+        <v>3.099367141723633</v>
+      </c>
+      <c r="V77" t="n">
+        <v>85.6340687124235</v>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4837138408098045312</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>63.95379139264965</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-46.04034292186665</v>
+      </c>
+      <c r="D78" t="n">
+        <v>11.21990585327148</v>
+      </c>
+      <c r="E78" t="n">
+        <v>12.12822151184082</v>
+      </c>
+      <c r="F78" t="n">
+        <v>9.658695220947266</v>
+      </c>
+      <c r="G78" t="n">
+        <v>51.08454363200401</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>3839.3333</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>4837138408098045312</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4837138408098045312</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>4837138408098045312</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>63.95377217134588</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>-46.04035735291039</v>
+      </c>
+      <c r="R78" t="n">
+        <v>11.27677345275879</v>
+      </c>
+      <c r="S78" t="n">
+        <v>12.10270977020264</v>
+      </c>
+      <c r="T78" t="n">
+        <v>9.638704299926758</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.464005470275879</v>
+      </c>
+      <c r="V78" t="n">
+        <v>51.96949401412878</v>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4837138408098045312</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>63.95379139264965</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-46.04034292186665</v>
+      </c>
+      <c r="D79" t="n">
+        <v>11.21990585327148</v>
+      </c>
+      <c r="E79" t="n">
+        <v>12.12822151184082</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9.658695220947266</v>
+      </c>
+      <c r="G79" t="n">
+        <v>51.08454363200401</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>3839.3333</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>4837138408098045312</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>4837138408098432896</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>4837138408098432896</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>63.95408501441926</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>-46.04037819828295</v>
+      </c>
+      <c r="R79" t="n">
+        <v>11.79192066192627</v>
+      </c>
+      <c r="S79" t="n">
+        <v>12.08944988250732</v>
+      </c>
+      <c r="T79" t="n">
+        <v>9.631105422973633</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.458344459533691</v>
+      </c>
+      <c r="V79" t="n">
+        <v>52.53127551577403</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>3213958769587525888</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>79.80577003837008</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-3.073222913358394</v>
+      </c>
+      <c r="D80" t="n">
+        <v>7.478399753570557</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8.042928695678711</v>
+      </c>
+      <c r="F80" t="n">
+        <v>6.742774486541748</v>
+      </c>
+      <c r="G80" t="n">
+        <v>63.65137588808516</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>4587.147</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0.22333561</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0.74825865</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>3213958769587525888</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>3213958769587525888</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>3213958769587525888</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>79.80586741563162</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>-3.07320375008595</v>
+      </c>
+      <c r="R80" t="n">
+        <v>7.49282169342041</v>
+      </c>
+      <c r="S80" t="n">
+        <v>8.024881362915039</v>
+      </c>
+      <c r="T80" t="n">
+        <v>6.745429039001465</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1.279452323913574</v>
+      </c>
+      <c r="V80" t="n">
+        <v>63.64345779109681</v>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>4587.147</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>0.22333561</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>0.74825865</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>3213958769589070848</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>79.80542734722003</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-3.072972836242535</v>
+      </c>
+      <c r="D81" t="n">
+        <v>9.889883041381836</v>
+      </c>
+      <c r="E81" t="n">
+        <v>10.13441944122314</v>
+      </c>
+      <c r="F81" t="n">
+        <v>8.577648162841797</v>
+      </c>
+      <c r="G81" t="n">
+        <v>57.97898590206367</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>5002.25</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>3213958769589070848</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>3213958769587525888</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>3213958769587525888</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>79.80586741563162</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>-3.07320375008595</v>
+      </c>
+      <c r="R81" t="n">
+        <v>7.49282169342041</v>
+      </c>
+      <c r="S81" t="n">
+        <v>8.024881362915039</v>
+      </c>
+      <c r="T81" t="n">
+        <v>6.745429039001465</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.279452323913574</v>
+      </c>
+      <c r="V81" t="n">
+        <v>63.64345779109681</v>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>4587.147</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>0.22333561</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>0.74825865</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>3213958769587525888</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>79.80577003837008</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-3.073222913358394</v>
+      </c>
+      <c r="D82" t="n">
+        <v>7.478399753570557</v>
+      </c>
+      <c r="E82" t="n">
+        <v>8.042928695678711</v>
+      </c>
+      <c r="F82" t="n">
+        <v>6.742774486541748</v>
+      </c>
+      <c r="G82" t="n">
+        <v>63.65137588808516</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>4587.147</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0.22333561</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0.74825865</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>3213958769587525888</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3213958769589070848</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>3213958769589070848</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>79.80542734722003</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-3.072972836242535</v>
+      </c>
+      <c r="D83" t="n">
+        <v>9.889883041381836</v>
+      </c>
+      <c r="E83" t="n">
+        <v>10.13441944122314</v>
+      </c>
+      <c r="F83" t="n">
+        <v>8.577648162841797</v>
+      </c>
+      <c r="G83" t="n">
+        <v>57.97898590206367</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>5002.25</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>3213958769589070848</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>3213958769589070848</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>5426587107149861120</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>142.6740032632142</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-40.466567086598</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4.803853511810303</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3.975138902664185</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3.240525007247925</v>
+      </c>
+      <c r="G84" t="n">
+        <v>54.30532208415497</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>5095.6333</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>5426587107149861120</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>5426587107145955712</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>5426587107145955712</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>142.6736805260494</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-40.46642826305888</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3.674772262573242</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3.775615692138672</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3.180518627166748</v>
+      </c>
+      <c r="G85" t="n">
+        <v>54.60594737051395</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>6812.0</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>8.295994</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2.0679383</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>5426587107145955712</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>5426587107145955712</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>5426587107149861120</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>142.6740032632142</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-40.466567086598</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4.803853511810303</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3.975138902664185</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3.240525007247925</v>
+      </c>
+      <c r="G86" t="n">
+        <v>54.30532208415497</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>5095.6333</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>5426587107149861120</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>5426587107149861120</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>5426587107145955712</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>142.6736805260494</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-40.46642826305888</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3.674772262573242</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.775615692138672</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3.180518627166748</v>
+      </c>
+      <c r="G87" t="n">
+        <v>54.60594737051395</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>6812.0</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>8.295994</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2.0679383</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>5426587107145955712</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>5426587107149861120</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>3699797150759489792</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>185.1066116242112</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.583451683457159</v>
+      </c>
+      <c r="D88" t="n">
+        <v>9.402151107788086</v>
+      </c>
+      <c r="E88" t="n">
+        <v>10.21803951263428</v>
+      </c>
+      <c r="F88" t="n">
+        <v>8.19732666015625</v>
+      </c>
+      <c r="G88" t="n">
+        <v>57.29620491552411</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>4051.515</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0.0635869</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>0.51180154</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>3699797150759489792</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>3699797150759489792</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>3699797150759489792</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>185.1066189569498</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.5834481084068606</v>
+      </c>
+      <c r="R88" t="n">
+        <v>9.414559364318848</v>
+      </c>
+      <c r="S88" t="n">
+        <v>10.20209217071533</v>
+      </c>
+      <c r="T88" t="n">
+        <v>8.179805755615234</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.022286415100098</v>
+      </c>
+      <c r="V88" t="n">
+        <v>57.1262796579985</v>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>3699797150759489792</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>185.1066116242112</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.583451683457159</v>
+      </c>
+      <c r="D89" t="n">
+        <v>9.402151107788086</v>
+      </c>
+      <c r="E89" t="n">
+        <v>10.21803951263428</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8.19732666015625</v>
+      </c>
+      <c r="G89" t="n">
+        <v>57.29620491552411</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>4051.515</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0.0635869</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>0.51180154</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>3699797150759489792</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>3699797155055781760</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>3699797155055781760</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>185.1066805650071</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.5836851086339531</v>
+      </c>
+      <c r="R89" t="n">
+        <v>10.83960628509521</v>
+      </c>
+      <c r="V89" t="n">
+        <v>56.81213571717324</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2595463996992115840</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>336.6440634509766</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-16.74185644464832</v>
+      </c>
+      <c r="D90" t="n">
+        <v>6.198555946350098</v>
+      </c>
+      <c r="E90" t="n">
+        <v>6.208871841430664</v>
+      </c>
+      <c r="F90" t="n">
+        <v>5.265100002288818</v>
+      </c>
+      <c r="G90" t="n">
+        <v>51.50789426625737</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>5143.45</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2595463996992115840</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>2595463992699783424</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2595463996992115840</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>336.6440634509766</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-16.74185644464832</v>
+      </c>
+      <c r="D91" t="n">
+        <v>6.198555946350098</v>
+      </c>
+      <c r="E91" t="n">
+        <v>6.208871841430664</v>
+      </c>
+      <c r="F91" t="n">
+        <v>5.265100002288818</v>
+      </c>
+      <c r="G91" t="n">
+        <v>51.50789426625737</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>5143.45</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>2595463996992115840</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>2595463996992115840</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>6663600360559308672</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>290.203985560264</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-45.57070375122545</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10.74048519134521</v>
+      </c>
+      <c r="E92" t="n">
+        <v>12.5438871383667</v>
+      </c>
+      <c r="F92" t="n">
+        <v>9.491452217102051</v>
+      </c>
+      <c r="G92" t="n">
+        <v>169.0921113093585</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>3302.0</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>6663600360559308672</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>6663600360560306176</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>6663600360559308672</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>290.203985560264</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-45.57070375122545</v>
+      </c>
+      <c r="D93" t="n">
+        <v>10.74048519134521</v>
+      </c>
+      <c r="E93" t="n">
+        <v>12.5438871383667</v>
+      </c>
+      <c r="F93" t="n">
+        <v>9.491452217102051</v>
+      </c>
+      <c r="G93" t="n">
+        <v>169.0921113093585</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>3302.0</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>6663600360559308672</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>6663600360560306560</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>6663600360560306560</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>290.2041162670791</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>-45.57110617010142</v>
+      </c>
+      <c r="R93" t="n">
+        <v>10.75291347503662</v>
+      </c>
+      <c r="S93" t="n">
+        <v>12.51910209655762</v>
+      </c>
+      <c r="T93" t="n">
+        <v>9.472212791442871</v>
+      </c>
+      <c r="U93" t="n">
+        <v>3.046889305114746</v>
+      </c>
+      <c r="V93" t="n">
+        <v>169.2350846641793</v>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2974726131970829952</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>75.61785590280779</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-21.25784077680808</v>
+      </c>
+      <c r="D94" t="n">
+        <v>7.750740051269531</v>
+      </c>
+      <c r="E94" t="n">
+        <v>8.57557487487793</v>
+      </c>
+      <c r="F94" t="n">
+        <v>6.656546115875244</v>
+      </c>
+      <c r="G94" t="n">
+        <v>119.3398737310191</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>4063.5964</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0.06656814</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0.52055275</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>2974726131970829952</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>2974726131970829952</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>2974726131970829952</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>75.6178310374648</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>-21.25787832693494</v>
+      </c>
+      <c r="R94" t="n">
+        <v>7.792407512664795</v>
+      </c>
+      <c r="S94" t="n">
+        <v>8.551479339599609</v>
+      </c>
+      <c r="T94" t="n">
+        <v>6.645774841308594</v>
+      </c>
+      <c r="U94" t="n">
+        <v>1.905704498291016</v>
+      </c>
+      <c r="V94" t="n">
+        <v>119.5737439372057</v>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2974726131970829952</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>75.61785590280779</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-21.25784077680808</v>
+      </c>
+      <c r="D95" t="n">
+        <v>7.750740051269531</v>
+      </c>
+      <c r="E95" t="n">
+        <v>8.57557487487793</v>
+      </c>
+      <c r="F95" t="n">
+        <v>6.656546115875244</v>
+      </c>
+      <c r="G95" t="n">
+        <v>119.3398737310191</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>4063.5964</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0.06656814</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>0.52055275</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>2974726131970829952</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>2974726136265625088</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>2974726136265625088</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>75.61776596344842</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>-21.25763920201128</v>
+      </c>
+      <c r="R95" t="n">
+        <v>9.636775970458984</v>
+      </c>
+      <c r="S95" t="n">
+        <v>8.56764030456543</v>
+      </c>
+      <c r="T95" t="n">
+        <v>6.678545475006104</v>
+      </c>
+      <c r="U95" t="n">
+        <v>1.889094829559326</v>
+      </c>
+      <c r="V95" t="n">
+        <v>118.8249653646052</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4975284381905517824</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>11.43603136528599</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-47.54865107475977</v>
+      </c>
+      <c r="D96" t="n">
+        <v>11.89260673522949</v>
+      </c>
+      <c r="E96" t="n">
+        <v>13.0518856048584</v>
+      </c>
+      <c r="F96" t="n">
+        <v>10.24972724914551</v>
+      </c>
+      <c r="G96" t="n">
+        <v>59.31016418754965</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>3506.0</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>4975284381905517824</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>4975284381905517824</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4975284381907834752</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>11.43574609211322</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-47.54851413287018</v>
+      </c>
+      <c r="D97" t="n">
+        <v>11.96830940246582</v>
+      </c>
+      <c r="E97" t="n">
+        <v>13.12998199462891</v>
+      </c>
+      <c r="F97" t="n">
+        <v>10.30367851257324</v>
+      </c>
+      <c r="G97" t="n">
+        <v>73.47133745563414</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>3488.03</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>4975284381907834752</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>4975284381905517824</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4975284381905517824</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>11.43603136528599</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-47.54865107475977</v>
+      </c>
+      <c r="D98" t="n">
+        <v>11.89260673522949</v>
+      </c>
+      <c r="E98" t="n">
+        <v>13.0518856048584</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10.24972724914551</v>
+      </c>
+      <c r="G98" t="n">
+        <v>59.31016418754965</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>3506.0</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>4975284381905517824</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>4975284381907834752</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4975284381907834752</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>11.43574609211322</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-47.54851413287018</v>
+      </c>
+      <c r="D99" t="n">
+        <v>11.96830940246582</v>
+      </c>
+      <c r="E99" t="n">
+        <v>13.12998199462891</v>
+      </c>
+      <c r="F99" t="n">
+        <v>10.30367851257324</v>
+      </c>
+      <c r="G99" t="n">
+        <v>73.47133745563414</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>3488.03</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>4975284381907834752</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>4975284381907834752</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>5140693571158739712</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>24.77121045213885</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-17.9477628246832</v>
+      </c>
+      <c r="D100" t="n">
+        <v>10.80610847473145</v>
+      </c>
+      <c r="E100" t="n">
+        <v>13.30387020111084</v>
+      </c>
+      <c r="F100" t="n">
+        <v>9.349278450012207</v>
+      </c>
+      <c r="G100" t="n">
+        <v>372.1631202537232</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>3295.75</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>5140693571158739712</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>5140693571158739712</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>5140693571158739712</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>24.77121045213885</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-17.9477628246832</v>
+      </c>
+      <c r="D101" t="n">
+        <v>10.80610847473145</v>
+      </c>
+      <c r="E101" t="n">
+        <v>13.30387020111084</v>
+      </c>
+      <c r="F101" t="n">
+        <v>9.349278450012207</v>
+      </c>
+      <c r="G101" t="n">
+        <v>372.1631202537232</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>3295.75</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>5140693571158739712</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>5140693571158946048</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>5140693571158946048</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>24.77167420821186</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>-17.94768286000849</v>
+      </c>
+      <c r="R101" t="n">
+        <v>10.81783771514893</v>
+      </c>
+      <c r="S101" t="n">
+        <v>13.25220680236816</v>
+      </c>
+      <c r="T101" t="n">
+        <v>9.423652648925781</v>
+      </c>
+      <c r="U101" t="n">
+        <v>3.828554153442383</v>
+      </c>
+      <c r="V101" t="n">
+        <v>373.8443122683992</v>
+      </c>
+      <c r="AA101" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>604756890202697728</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>134.269375638669</v>
+      </c>
+      <c r="C102" t="n">
+        <v>11.64555935981716</v>
+      </c>
+      <c r="D102" t="n">
+        <v>9.820775985717773</v>
+      </c>
+      <c r="E102" t="n">
+        <v>10.84401416778564</v>
+      </c>
+      <c r="F102" t="n">
+        <v>8.701269149780273</v>
+      </c>
+      <c r="G102" t="n">
+        <v>58.42078344464063</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>3827.2</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>604756890202697728</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>604756890202697728</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>604756890202697728</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>134.2693739717275</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>11.645516175304</v>
+      </c>
+      <c r="R102" t="n">
+        <v>9.958462715148926</v>
+      </c>
+      <c r="S102" t="n">
+        <v>10.82699108123779</v>
+      </c>
+      <c r="T102" t="n">
+        <v>8.686419486999512</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.140571594238281</v>
+      </c>
+      <c r="V102" t="n">
+        <v>61.32382466236479</v>
+      </c>
+      <c r="AA102" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>604756890202697728</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>134.269375638669</v>
+      </c>
+      <c r="C103" t="n">
+        <v>11.64555935981716</v>
+      </c>
+      <c r="D103" t="n">
+        <v>9.820775985717773</v>
+      </c>
+      <c r="E103" t="n">
+        <v>10.84401416778564</v>
+      </c>
+      <c r="F103" t="n">
+        <v>8.701269149780273</v>
+      </c>
+      <c r="G103" t="n">
+        <v>58.42078344464063</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>3827.2</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>604756890202697728</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>604756894497812864</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>217.3934657426036</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-62.67618210292382</v>
+      </c>
+      <c r="D104" t="n">
+        <v>8.953612327575684</v>
+      </c>
+      <c r="E104" t="n">
+        <v>11.38292598724365</v>
+      </c>
+      <c r="F104" t="n">
+        <v>7.586430072784424</v>
+      </c>
+      <c r="G104" t="n">
+        <v>768.5003653333918</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>3295.5</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>5853498713190523520</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>217.3934657426036</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-62.67618210292382</v>
+      </c>
+      <c r="D105" t="n">
+        <v>8.953612327575684</v>
+      </c>
+      <c r="E105" t="n">
+        <v>11.38292598724365</v>
+      </c>
+      <c r="F105" t="n">
+        <v>7.586430072784424</v>
+      </c>
+      <c r="G105" t="n">
+        <v>768.5003653333918</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>3295.5</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>5853498713190524032</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>217.3934657426036</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-62.67618210292382</v>
+      </c>
+      <c r="D106" t="n">
+        <v>8.953612327575684</v>
+      </c>
+      <c r="E106" t="n">
+        <v>11.38292598724365</v>
+      </c>
+      <c r="F106" t="n">
+        <v>7.586430072784424</v>
+      </c>
+      <c r="G106" t="n">
+        <v>768.5003653333918</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>3295.5</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>5853498713160606720</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>5853498713190525696</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>5853498713190525696</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>217.3923214720088</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>-62.67607511676666</v>
+      </c>
+      <c r="R106" t="n">
+        <v>8.984748840332031</v>
+      </c>
+      <c r="S106" t="n">
+        <v>11.37311553955078</v>
+      </c>
+      <c r="T106" t="n">
+        <v>7.568535327911377</v>
+      </c>
+      <c r="U106" t="n">
+        <v>3.804580211639404</v>
+      </c>
+      <c r="V106" t="n">
+        <v>768.0665391873573</v>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>2829.3542</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>0.0015221541</t>
+        </is>
+      </c>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>0.16237111</t>
+        </is>
+      </c>
+      <c r="AA106" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>4548562265603840768</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>258.9581327576004</v>
+      </c>
+      <c r="C107" t="n">
+        <v>19.00008178285036</v>
+      </c>
+      <c r="D107" t="n">
+        <v>9.643589019775391</v>
+      </c>
+      <c r="E107" t="n">
+        <v>10.62963771820068</v>
+      </c>
+      <c r="F107" t="n">
+        <v>8.598058700561523</v>
+      </c>
+      <c r="G107" t="n">
+        <v>73.10602141993046</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>3671.2068</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>0.03414832</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>0.4769425</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>4548562265603840768</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>4548562265603840768</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>4548562265603840768</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>258.9581105968307</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>19.00008369604771</v>
+      </c>
+      <c r="R107" t="n">
+        <v>9.650931358337402</v>
+      </c>
+      <c r="S107" t="n">
+        <v>10.61354923248291</v>
+      </c>
+      <c r="T107" t="n">
+        <v>8.587146759033203</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.026402473449707</v>
+      </c>
+      <c r="V107" t="n">
+        <v>73.06209239932777</v>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>3671.2068</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>0.03414832</t>
+        </is>
+      </c>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>0.4769425</t>
+        </is>
+      </c>
+      <c r="AA107" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4548562269906020352</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>258.9576915317289</v>
+      </c>
+      <c r="C108" t="n">
+        <v>19.00008846619465</v>
+      </c>
+      <c r="D108" t="n">
+        <v>11.94250583648682</v>
+      </c>
+      <c r="G108" t="n">
+        <v>76.57901615469025</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>4548562269906020352</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>4548562265603840768</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>4548562265603840768</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>258.9581105968307</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>19.00008369604771</v>
+      </c>
+      <c r="R108" t="n">
+        <v>9.650931358337402</v>
+      </c>
+      <c r="S108" t="n">
+        <v>10.61354923248291</v>
+      </c>
+      <c r="T108" t="n">
+        <v>8.587146759033203</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.026402473449707</v>
+      </c>
+      <c r="V108" t="n">
+        <v>73.06209239932777</v>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>3671.2068</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>0.03414832</t>
+        </is>
+      </c>
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>0.4769425</t>
+        </is>
+      </c>
+      <c r="AA108" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>4548562265603840768</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>258.9581327576004</v>
+      </c>
+      <c r="C109" t="n">
+        <v>19.00008178285036</v>
+      </c>
+      <c r="D109" t="n">
+        <v>9.643589019775391</v>
+      </c>
+      <c r="E109" t="n">
+        <v>10.62963771820068</v>
+      </c>
+      <c r="F109" t="n">
+        <v>8.598058700561523</v>
+      </c>
+      <c r="G109" t="n">
+        <v>73.10602141993046</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>3671.2068</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>0.03414832</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>0.4769425</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>4548562265603840768</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>4548562269906020352</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>4548562269906020352</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>258.9576915317289</v>
+      </c>
+      <c r="C110" t="n">
+        <v>19.00008846619465</v>
+      </c>
+      <c r="D110" t="n">
+        <v>11.94250583648682</v>
+      </c>
+      <c r="G110" t="n">
+        <v>76.57901615469025</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>4548562269906020352</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>4548562269906020352</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>5600272625752039296</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>118.7298300988011</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-29.35117108926297</v>
+      </c>
+      <c r="D111" t="n">
+        <v>11.87730598449707</v>
+      </c>
+      <c r="E111" t="n">
+        <v>13.18288803100586</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10.19697570800781</v>
+      </c>
+      <c r="G111" t="n">
+        <v>80.35257033271708</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>3689.0</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>5600272625752039296</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>5600272625752039296</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>5600272625752039296</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>118.7298300988011</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-29.35117108926297</v>
+      </c>
+      <c r="D112" t="n">
+        <v>11.87730598449707</v>
+      </c>
+      <c r="E112" t="n">
+        <v>13.18288803100586</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10.19697570800781</v>
+      </c>
+      <c r="G112" t="n">
+        <v>80.35257033271708</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>3689.0</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>5600272625752039296</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>5600272629670698880</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>5600272625752039296</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>118.7298300988011</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-29.35117108926297</v>
+      </c>
+      <c r="D113" t="n">
+        <v>11.87730598449707</v>
+      </c>
+      <c r="E113" t="n">
+        <v>13.18288803100586</v>
+      </c>
+      <c r="F113" t="n">
+        <v>10.19697570800781</v>
+      </c>
+      <c r="G113" t="n">
+        <v>80.35257033271708</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>3689.0</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>5600272625752039296</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>5600272629670699008</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>5089072526731699072</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>61.83621486837872</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-24.48988981967711</v>
+      </c>
+      <c r="D114" t="n">
+        <v>11.63295078277588</v>
+      </c>
+      <c r="E114" t="n">
+        <v>12.86081886291504</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10.11979484558105</v>
+      </c>
+      <c r="G114" t="n">
+        <v>54.10678393881965</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>3709.0</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>5089072526731699072</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>5089072526731699072</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>5089072526731699072</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>61.83624336770453</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>-24.4899792475875</v>
+      </c>
+      <c r="R114" t="n">
+        <v>11.66618251800537</v>
+      </c>
+      <c r="S114" t="n">
+        <v>12.81233215332031</v>
+      </c>
+      <c r="T114" t="n">
+        <v>10.08365631103516</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.728675842285156</v>
+      </c>
+      <c r="V114" t="n">
+        <v>54.17895823734575</v>
+      </c>
+      <c r="AA114" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>5089072526731699072</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>61.83621486837872</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-24.48988981967711</v>
+      </c>
+      <c r="D115" t="n">
+        <v>11.63295078277588</v>
+      </c>
+      <c r="E115" t="n">
+        <v>12.86081886291504</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10.11979484558105</v>
+      </c>
+      <c r="G115" t="n">
+        <v>54.10678393881965</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>3709.0</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>5089072526731699072</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>5089072531027887232</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>6031475835680030720</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>248.9143368530453</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-30.85924154787604</v>
+      </c>
+      <c r="D116" t="n">
+        <v>11.55023193359375</v>
+      </c>
+      <c r="E116" t="n">
+        <v>12.94421672821045</v>
+      </c>
+      <c r="F116" t="n">
+        <v>10.41819190979004</v>
+      </c>
+      <c r="G116" t="n">
+        <v>51.51049019973517</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>3180.8992</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>0.017104348</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>0.4312703</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>6031475835680030720</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>6031475835680030592</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>6031475835680030720</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>248.9143368530453</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-30.85924154787604</v>
+      </c>
+      <c r="D117" t="n">
+        <v>11.55023193359375</v>
+      </c>
+      <c r="E117" t="n">
+        <v>12.94421672821045</v>
+      </c>
+      <c r="F117" t="n">
+        <v>10.41819190979004</v>
+      </c>
+      <c r="G117" t="n">
+        <v>51.51049019973517</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>3180.8992</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>0.017104348</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>0.4312703</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>6031475835680030720</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>6031475835680030720</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>6031475835680030720</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>248.9142069369892</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>-30.85935860580987</v>
+      </c>
+      <c r="R117" t="n">
+        <v>11.54731369018555</v>
+      </c>
+      <c r="S117" t="n">
+        <v>12.91535568237305</v>
+      </c>
+      <c r="T117" t="n">
+        <v>10.39284706115723</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.52250862121582</v>
+      </c>
+      <c r="V117" t="n">
+        <v>51.52022228159037</v>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>3180.8992</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>0.017104348</t>
+        </is>
+      </c>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>0.4312703</t>
+        </is>
+      </c>
+      <c r="AA117" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>3943232534137347072</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>196.5637452871749</v>
+      </c>
+      <c r="C118" t="n">
+        <v>20.72924572096149</v>
+      </c>
+      <c r="D118" t="n">
+        <v>11.00532150268555</v>
+      </c>
+      <c r="G118" t="n">
+        <v>50.73286989483509</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>3943232534137347072</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>3943232534137347072</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>3943232534137347072</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>196.563738426432</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>20.72925425051951</v>
+      </c>
+      <c r="R118" t="n">
+        <v>11.07057094573975</v>
+      </c>
+      <c r="T118" t="n">
+        <v>8.683836936950684</v>
+      </c>
+      <c r="V118" t="n">
+        <v>50.75462072435086</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>196.5638957330539</v>
+      </c>
+      <c r="C119" t="n">
+        <v>20.72965678223564</v>
+      </c>
+      <c r="D119" t="n">
+        <v>8.969438552856445</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9.729983329772949</v>
+      </c>
+      <c r="F119" t="n">
+        <v>8.007077217102051</v>
+      </c>
+      <c r="G119" t="n">
+        <v>50.90347875548716</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>4006.3718</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>0.64154863</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>0.1079833</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>0.68242973</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>3943232534137347072</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>3943232534137347072</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>196.563738426432</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>20.72925425051951</v>
+      </c>
+      <c r="R119" t="n">
+        <v>11.07057094573975</v>
+      </c>
+      <c r="T119" t="n">
+        <v>8.683836936950684</v>
+      </c>
+      <c r="V119" t="n">
+        <v>50.75462072435086</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>3943232534137347072</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>196.5637452871749</v>
+      </c>
+      <c r="C120" t="n">
+        <v>20.72924572096149</v>
+      </c>
+      <c r="D120" t="n">
+        <v>11.00532150268555</v>
+      </c>
+      <c r="G120" t="n">
+        <v>50.73286989483509</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>3943232534137347072</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>196.563887451697</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>20.72966994150692</v>
+      </c>
+      <c r="R120" t="n">
+        <v>8.973732948303223</v>
+      </c>
+      <c r="S120" t="n">
+        <v>9.684998512268066</v>
+      </c>
+      <c r="T120" t="n">
+        <v>8.016292572021484</v>
+      </c>
+      <c r="U120" t="n">
+        <v>1.668705940246582</v>
+      </c>
+      <c r="V120" t="n">
+        <v>50.80727454464759</v>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>4006.3718</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>0.64154863</t>
+        </is>
+      </c>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>0.1079833</t>
+        </is>
+      </c>
+      <c r="Z120" t="inlineStr">
+        <is>
+          <t>0.68242973</t>
+        </is>
+      </c>
+      <c r="AA120" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>196.5638957330539</v>
+      </c>
+      <c r="C121" t="n">
+        <v>20.72965678223564</v>
+      </c>
+      <c r="D121" t="n">
+        <v>8.969438552856445</v>
+      </c>
+      <c r="E121" t="n">
+        <v>9.729983329772949</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8.007077217102051</v>
+      </c>
+      <c r="G121" t="n">
+        <v>50.90347875548716</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>4006.3718</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>0.64154863</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>0.1079833</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>0.68242973</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>3943232534138172672</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>196.563887451697</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>20.72966994150692</v>
+      </c>
+      <c r="R121" t="n">
+        <v>8.973732948303223</v>
+      </c>
+      <c r="S121" t="n">
+        <v>9.684998512268066</v>
+      </c>
+      <c r="T121" t="n">
+        <v>8.016292572021484</v>
+      </c>
+      <c r="U121" t="n">
+        <v>1.668705940246582</v>
+      </c>
+      <c r="V121" t="n">
+        <v>50.80727454464759</v>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>4006.3718</t>
+        </is>
+      </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>0.64154863</t>
+        </is>
+      </c>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>0.1079833</t>
+        </is>
+      </c>
+      <c r="Z121" t="inlineStr">
+        <is>
+          <t>0.68242973</t>
+        </is>
+      </c>
+      <c r="AA121" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>4348683734720633984</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>242.2440860797498</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-8.011861586877151</v>
+      </c>
+      <c r="D122" t="n">
+        <v>10.12903308868408</v>
+      </c>
+      <c r="E122" t="n">
+        <v>10.49778461456299</v>
+      </c>
+      <c r="F122" t="n">
+        <v>9.600589752197266</v>
+      </c>
+      <c r="G122" t="n">
+        <v>62.97157546873284</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>5497.0</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>4348683734720633984</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>4348683730417167104</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>4348683734720633984</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>242.2440860797498</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-8.011861586877151</v>
+      </c>
+      <c r="D123" t="n">
+        <v>10.12903308868408</v>
+      </c>
+      <c r="E123" t="n">
+        <v>10.49778461456299</v>
+      </c>
+      <c r="F123" t="n">
+        <v>9.600589752197266</v>
+      </c>
+      <c r="G123" t="n">
+        <v>62.97157546873284</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>5497.0</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>4348683734720633984</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>4348683734720633984</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
           <t>5091025641634025984</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="B124" t="n">
         <v>62.32896483206782</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C124" t="n">
         <v>-20.41643992803905</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D124" t="n">
         <v>8.992939949035645</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E124" t="n">
         <v>9.285513877868652</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F124" t="n">
         <v>8.515896797180176</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G124" t="n">
         <v>51.14039636287707</v>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>6084.6665</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L124" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="M124" t="inlineStr">
         <is>
           <t>5091025641634025984</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>5091025641634025984</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>5091025641634025984</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>62.32896483206782</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-20.41643992803905</v>
+      </c>
+      <c r="D125" t="n">
+        <v>8.992939949035645</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9.285513877868652</v>
+      </c>
+      <c r="F125" t="n">
+        <v>8.515896797180176</v>
+      </c>
+      <c r="G125" t="n">
+        <v>51.14039636287707</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>6084.6665</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>5091025641634025984</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
         <is>
           <t>5091025641635400576</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>4687511776265158400</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>17.32995738057579</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-72.20984060971971</v>
+      </c>
+      <c r="D126" t="n">
+        <v>11.87352085113525</v>
+      </c>
+      <c r="E126" t="n">
+        <v>13.15908527374268</v>
+      </c>
+      <c r="F126" t="n">
+        <v>10.74918746948242</v>
+      </c>
+      <c r="G126" t="n">
+        <v>51.90238250467226</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>3335.7856</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>0.010535274</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>0.30660966</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>4687511776265158400</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>4687511776265158400</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>4687511776265158400</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>17.33022266574235</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>-72.20977962341956</v>
+      </c>
+      <c r="R126" t="n">
+        <v>11.8625545501709</v>
+      </c>
+      <c r="S126" t="n">
+        <v>13.11541843414307</v>
+      </c>
+      <c r="T126" t="n">
+        <v>10.717453956604</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.397964477539062</v>
+      </c>
+      <c r="V126" t="n">
+        <v>51.88733141396492</v>
+      </c>
+      <c r="W126" t="inlineStr">
+        <is>
+          <t>3335.7856</t>
+        </is>
+      </c>
+      <c r="Y126" t="inlineStr">
+        <is>
+          <t>0.010535274</t>
+        </is>
+      </c>
+      <c r="Z126" t="inlineStr">
+        <is>
+          <t>0.30660966</t>
+        </is>
+      </c>
+      <c r="AA126" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>4687511776265158400</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>17.32995738057579</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-72.20984060971971</v>
+      </c>
+      <c r="D127" t="n">
+        <v>11.87352085113525</v>
+      </c>
+      <c r="E127" t="n">
+        <v>13.15908527374268</v>
+      </c>
+      <c r="F127" t="n">
+        <v>10.74918746948242</v>
+      </c>
+      <c r="G127" t="n">
+        <v>51.90238250467226</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>3335.7856</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>0.010535274</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>0.30660966</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>4687511776265158400</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>4687511780573305984</t>
         </is>
       </c>
     </row>

--- a/results/repeated_entries.xlsx
+++ b/results/repeated_entries.xlsx
@@ -428,7 +428,8 @@
   <dimension ref="A1:AC1174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>

--- a/results/repeated_entries.xlsx
+++ b/results/repeated_entries.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -427,7 +440,7 @@
   </sheetPr>
   <dimension ref="A1:AC1174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -90754,6 +90767,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/repeated_entries.xlsx
+++ b/results/repeated_entries.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -427,7 +440,7 @@
   </sheetPr>
   <dimension ref="A1:AC1174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -90754,6 +90767,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>